--- a/analysis/saccades/raw_data/el_hms.xlsx
+++ b/analysis/saccades/raw_data/el_hms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azafar\Documents\GitHub\eyelink-adhawk-validation-gui\analysis\saccades\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DECA2E46-3D81-4105-94A3-E9136A646C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400922B-FA7B-446B-9660-CF66E5CEC0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65CD13DD-9196-4860-93EE-72C696D0B41A}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F558FE-E389-423F-BE46-6FA7F4A44F55}">
-  <dimension ref="A1:B776"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6194 +419,5882 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-7.3710501251400551E-3</v>
+        <v>2.4579648827502965E-3</v>
       </c>
       <c r="B3">
-        <v>3.1991083735219972E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-1.9656321707070212E-2</v>
+        <v>-4.9159551475499441E-3</v>
       </c>
       <c r="B4">
-        <v>6.1520643653799834E-2</v>
+        <v>-2.4599585763400711E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-3.4398956487959875E-2</v>
+        <v>-4.9159551475499441E-3</v>
       </c>
       <c r="B5">
-        <v>7.3824432920639893E-2</v>
+        <v>7.3798398046500679E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-4.4227565978339989E-2</v>
+        <v>-9.8319440778400491E-3</v>
       </c>
       <c r="B6">
-        <v>8.6128106388719816E-2</v>
+        <v>1.7219542049589975E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5.6513536421470167E-2</v>
+        <v>-4.9159551475499441E-3</v>
       </c>
       <c r="B7">
-        <v>9.3510254414799876E-2</v>
+        <v>1.9679452521710106E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-5.6513536421470167E-2</v>
+        <v>-1.4747966718829719E-2</v>
       </c>
       <c r="B8">
-        <v>0.10089236010067992</v>
+        <v>1.9679452521710106E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-5.4056323840319997E-2</v>
+        <v>-1.7205990658329728E-2</v>
       </c>
       <c r="B9">
-        <v>0.10335305254474991</v>
+        <v>2.7059147579499898E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-6.3885229498759966E-2</v>
+        <v>-3.1954310394049834E-2</v>
       </c>
       <c r="B10">
-        <v>0.10581374024808987</v>
+        <v>1.7219542049589975E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-6.634247893916001E-2</v>
+        <v>-3.6870483841719981E-2</v>
       </c>
       <c r="B11">
-        <v>0.13042035454791989</v>
+        <v>7.3798398046500679E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-6.8799737571910047E-2</v>
+        <v>-8.8492302626979935E-2</v>
       </c>
       <c r="B12">
-        <v>0.14026286524377984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-8.1086168306230277E-2</v>
+        <v>-0.14257615179340988</v>
       </c>
       <c r="B13">
-        <v>0.15010529791301996</v>
+        <v>-7.3798936368900669E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-9.5830186656160166E-2</v>
+        <v>-0.24829650294016981</v>
       </c>
       <c r="B14">
-        <v>0.17471103441386981</v>
+        <v>-0.10578350011005999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-0.10565971403216023</v>
+        <v>-0.31714521474351987</v>
       </c>
       <c r="B15">
-        <v>0.20177676630952002</v>
+        <v>-0.4330365969852199</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-0.11303195460503002</v>
+        <v>-0.57783694907182981</v>
       </c>
       <c r="B16">
-        <v>0.20915822289439001</v>
+        <v>-0.70129532084576396</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-0.11548938618438997</v>
+        <v>-0.83859995352156003</v>
       </c>
       <c r="B17">
-        <v>0.22638144160722984</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-0.12040427637175988</v>
+        <v>-0.94932014628544992</v>
       </c>
       <c r="B18">
-        <v>0.25836674167243001</v>
+        <v>-1.0262120410962718</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-0.12531920253739015</v>
+        <v>-1.0600504160965298</v>
       </c>
       <c r="B19">
-        <v>0.26820819279418995</v>
+        <v>-1.0237503803449539</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-0.13023416460934012</v>
+        <v>-1.07727597709616</v>
       </c>
       <c r="B20">
-        <v>0.27558922501599992</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-0.13760667488423994</v>
+        <v>-1.08711925412042</v>
       </c>
       <c r="B21">
-        <v>0.29773203045863994</v>
+        <v>-1.0114421098994599</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-0.14743681358475014</v>
+        <v>-1.0969626026449699</v>
       </c>
       <c r="B22">
-        <v>0.3198743939329598</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-0.15726709461549016</v>
+        <v>-1.12157128296193</v>
       </c>
       <c r="B23">
-        <v>0.32233462897249998</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-0.1646398984464601</v>
+        <v>-1.1461803974613298</v>
       </c>
       <c r="B24">
-        <v>0.32233462897249998</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-0.17201278177151025</v>
+        <v>-1.1584851146955999</v>
       </c>
       <c r="B25">
-        <v>0.33217551357071984</v>
+        <v>-0.99667225984849495</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-0.17938574434773003</v>
+        <v>-1.1707899370747199</v>
       </c>
       <c r="B26">
-        <v>0.33217551357071984</v>
+        <v>-0.98928736586592103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-0.18675878593223016</v>
+        <v>-1.1806338699204699</v>
       </c>
       <c r="B27">
-        <v>0.33217551357071984</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-0.19658963052678002</v>
+        <v>-1.1929388787033699</v>
       </c>
       <c r="B28">
-        <v>0.33217551357071984</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-0.20642061457276029</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B29">
-        <v>0.32725508240169998</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-0.21379394377581029</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B30">
-        <v>0.33955611842795985</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-0.24820383913692989</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B31">
-        <v>0.34939684631767998</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-0.24820383913692989</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B32">
-        <v>0.34939684631767998</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-0.25066175304846006</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B33">
-        <v>0.36415776857557991</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-0.25311967547769987</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B34">
-        <v>0.36169762906520986</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-0.25311967547769987</v>
+        <v>-1.24954321495712</v>
       </c>
       <c r="B35">
-        <v>0.35677733297816983</v>
+        <v>-0.96713281103317594</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-0.2604934937816501</v>
+        <v>-1.2544654294948498</v>
       </c>
       <c r="B36">
-        <v>0.36661790238511993</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-0.26295145019168986</v>
+        <v>-1.26184878016889</v>
       </c>
       <c r="B37">
-        <v>0.37891848560356989</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-0.2604934937816501</v>
+        <v>-1.2667710330907098</v>
       </c>
       <c r="B38">
-        <v>0.42073938556629997</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-0.26295145019168986</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B39">
-        <v>0.42811936838074982</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-0.2604934937816501</v>
+        <v>-1.2716933012391298</v>
       </c>
       <c r="B40">
-        <v>0.4404192208950799</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-0.26540941507444016</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B41">
-        <v>0.4404192208950799</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-0.26295145019168986</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B42">
-        <v>0.4404192208950799</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-0.2703253702219901</v>
+        <v>-1.2790767318528899</v>
       </c>
       <c r="B43">
-        <v>0.43795926231873983</v>
+        <v>-0.99667225984849495</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-0.2703253702219901</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B44">
-        <v>0.44779906069972997</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-0.27524135915228021</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B45">
-        <v>0.45763876294466987</v>
+        <v>-0.98928736586592103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-0.2703253702219901</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B46">
-        <v>0.46009867341679</v>
+        <v>-0.98682573919791094</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-0.28015738179326988</v>
+        <v>-1.2889213586202199</v>
       </c>
       <c r="B47">
-        <v>0.46009867341679</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-0.28261540573276989</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B48">
-        <v>0.4674783684745798</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-0.29736372546848999</v>
+        <v>-1.2889213586202199</v>
       </c>
       <c r="B49">
-        <v>0.45763876294466987</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-0.30227989891616014</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B50">
-        <v>0.44779906069972997</v>
+        <v>-0.98928736586592103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-0.35390171770142009</v>
+        <v>-1.2790767318528899</v>
       </c>
       <c r="B51">
-        <v>0.4404192208950799</v>
+        <v>-0.98190249290566201</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-0.40798556686785004</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B52">
-        <v>0.43303932725818983</v>
+        <v>-0.98682573919791094</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-0.51370591801460996</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B53">
-        <v>0.33463572078501991</v>
+        <v>-0.99174899486974499</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-0.58255462981796002</v>
+        <v>-1.2716933012391298</v>
       </c>
       <c r="B54">
-        <v>7.3826239098599977E-3</v>
+        <v>-0.98928736586592103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-0.84324636414626997</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B55">
-        <v>-0.26087609995068406</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-1.1040093685960002</v>
+        <v>-1.26184878016889</v>
       </c>
       <c r="B56">
-        <v>-0.57348453862171311</v>
+        <v>-0.98928736586592103</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-1.2147295613598901</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B57">
-        <v>-0.58579282020119205</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-1.32545983117097</v>
+        <v>-1.2667710330907098</v>
       </c>
       <c r="B58">
-        <v>-0.58333115944987413</v>
+        <v>-0.99174899486974499</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1.3426853921706001</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B59">
-        <v>-0.57594619048401507</v>
+        <v>-0.99913389580525103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-1.3525286691948601</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B60">
-        <v>-0.57102288900438014</v>
+        <v>-0.99174899486974499</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-1.3623720177194101</v>
+        <v>-1.2913825246472099</v>
       </c>
       <c r="B61">
-        <v>-0.57594619048401507</v>
+        <v>-1.006518817436028</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-1.3869806980363701</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B62">
-        <v>-0.57594619048401507</v>
+        <v>-1.006518817436028</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-1.41158981253577</v>
+        <v>-1.2938436943901199</v>
       </c>
       <c r="B63">
-        <v>-0.56117631316639904</v>
+        <v>-1.008980462536176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-1.4238945297700401</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B64">
-        <v>-0.55625303895341505</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-1.4361993521491601</v>
+        <v>-1.3036884103394248</v>
       </c>
       <c r="B65">
-        <v>-0.54886814497084113</v>
+        <v>-1.006518817436028</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-1.4460432849949101</v>
+        <v>-1.2963048678398699</v>
       </c>
       <c r="B66">
-        <v>-0.53902165240451305</v>
+        <v>-0.99667225984849495</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-1.4583482937778101</v>
+        <v>-1.3061495985257978</v>
       </c>
       <c r="B67">
-        <v>-0.5340984203179111</v>
+        <v>-0.99667225984849495</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-1.4829586161207702</v>
+        <v>-1.2889213586202199</v>
       </c>
       <c r="B68">
-        <v>-0.53163680785554313</v>
+        <v>-0.99667225984849495</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-1.4854196704393001</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B69">
-        <v>-0.52179038209093009</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-1.4903417910044001</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B70">
-        <v>-0.51932878171640806</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-1.50018607959265</v>
+        <v>-1.24954321495712</v>
       </c>
       <c r="B71">
-        <v>-0.51932878171640806</v>
+        <v>-0.92282429545893196</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-1.5051082474706601</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B72">
-        <v>-0.52425198490118508</v>
+        <v>-0.87113208795583597</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-1.5100304309744901</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B73">
-        <v>-0.52917519779257705</v>
+        <v>-0.86867058408897302</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-1.5149526300315601</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B74">
-        <v>-0.52671359013809604</v>
+        <v>-0.863747584706967</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-1.51987484456929</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B75">
-        <v>-0.52425198490118508</v>
+        <v>-0.85636310664947102</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-1.5272581952433302</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B76">
-        <v>-0.52179038209093009</v>
+        <v>-0.84651717551652594</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-1.53218044816515</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B77">
-        <v>-0.52179038209093009</v>
+        <v>-0.84405569986711204</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-1.53464158034057</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B78">
-        <v>-0.52425198490118508</v>
+        <v>-0.84651717551652594</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-1.53710271631357</v>
+        <v>-1.2027829592027599</v>
       </c>
       <c r="B79">
-        <v>-0.52425198490118508</v>
+        <v>-0.84651717551652594</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-1.5395638560750802</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B80">
-        <v>-0.54394489397971613</v>
+        <v>-0.86620908300298805</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-1.5395638560750802</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B81">
-        <v>-0.56117631316639904</v>
+        <v>-0.87359359459449704</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-1.5444861469273301</v>
+        <v>-1.24954321495712</v>
       </c>
       <c r="B82">
-        <v>-0.55625303895341505</v>
+        <v>-0.87851661615087995</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-1.5494084528247201</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B83">
-        <v>-0.55379140530521809</v>
+        <v>-0.89082421791256994</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-1.5494084528247201</v>
+        <v>-1.2544654294948498</v>
       </c>
       <c r="B84">
-        <v>-0.54886814497084113</v>
+        <v>-0.903131887152817</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-1.5469472979999201</v>
+        <v>-1.2667710330907098</v>
       </c>
       <c r="B85">
-        <v>-0.54640651830283105</v>
+        <v>-0.91543962273633694</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-1.5543307736946601</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B86">
-        <v>-0.54394489397971613</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-1.5494084528247201</v>
+        <v>-1.26184878016889</v>
       </c>
       <c r="B87">
-        <v>-0.54394489397971613</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-1.5543307736946601</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B88">
-        <v>-0.54394489397971613</v>
+        <v>-0.912978070366668</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-1.5469472979999201</v>
+        <v>-1.26184878016889</v>
       </c>
       <c r="B89">
-        <v>-0.54886814497084113</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-1.5444861469273301</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B90">
-        <v>-0.54148327201058211</v>
+        <v>-0.92528585820738096</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-1.54202499961603</v>
+        <v>-1.2593876594406399</v>
       </c>
       <c r="B91">
-        <v>-0.54640651830283105</v>
+        <v>-0.92282429545893196</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-1.5395638560750802</v>
+        <v>-1.2716933012391298</v>
       </c>
       <c r="B92">
-        <v>-0.55132977397466509</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-1.53710271631357</v>
+        <v>-1.2569265425462699</v>
       </c>
       <c r="B93">
-        <v>-0.54886814497084113</v>
+        <v>-0.912978070366668</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-1.5395638560750802</v>
+        <v>-1.2716933012391298</v>
       </c>
       <c r="B94">
-        <v>-0.55379140530521809</v>
+        <v>-0.917901177714328</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-1.5272581952433302</v>
+        <v>-1.2643099047219299</v>
       </c>
       <c r="B95">
-        <v>-0.54886814497084113</v>
+        <v>-0.917901177714328</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-1.54202499961603</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B96">
-        <v>-0.54394489397971613</v>
+        <v>-0.917901177714328</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-1.53218044816515</v>
+        <v>-1.2667710330907098</v>
       </c>
       <c r="B97">
-        <v>-0.55132977397466509</v>
+        <v>-0.912978070366668</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-1.5469472979999201</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B98">
-        <v>-0.55871467491017113</v>
+        <v>-0.92282429545893196</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-1.54202499961603</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B99">
-        <v>-0.55132977397466509</v>
+        <v>-0.92282429545893196</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-1.5567919397216501</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B100">
-        <v>-0.5660995965409481</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-1.5469472979999201</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B101">
-        <v>-0.5660995965409481</v>
+        <v>-0.94497845202352904</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-1.5592531094645601</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B102">
-        <v>-0.56856124164109612</v>
+        <v>-0.94005528839189301</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-1.5494084528247201</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B103">
-        <v>-0.57840784458220007</v>
+        <v>-0.93759371034776995</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-1.569097825413865</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B104">
-        <v>-0.5660995965409481</v>
+        <v>-0.92282429545893196</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-1.56171428291431</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B105">
-        <v>-0.55625303895341505</v>
+        <v>-0.917901177714328</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-1.571559013600238</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B106">
-        <v>-0.55625303895341505</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-1.5543307736946601</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B107">
-        <v>-0.55625303895341505</v>
+        <v>-0.92036273529155399</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-1.5494084528247201</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B108">
-        <v>-0.54394489397971613</v>
+        <v>-0.917901177714328</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-1.54202499961603</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B109">
-        <v>-0.52917519779257705</v>
+        <v>-0.93020899141115398</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-1.5149526300315601</v>
+        <v>-1.28153788292548</v>
       </c>
       <c r="B110">
-        <v>-0.48240507456385207</v>
+        <v>-0.94251686895350795</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-1.4829586161207702</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B111">
-        <v>-0.43071286706075607</v>
+        <v>-0.94990162565245195</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-1.4731144388183601</v>
+        <v>-1.2864601963182198</v>
       </c>
       <c r="B112">
-        <v>-0.42825136319389312</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-1.46080930780712</v>
+        <v>-1.2864601963182198</v>
       </c>
       <c r="B113">
-        <v>-0.4233283638118871</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-1.46080930780712</v>
+        <v>-1.2864601963182198</v>
       </c>
       <c r="B114">
-        <v>-0.41594388575439112</v>
+        <v>-0.95236321619318498</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-1.46080930780712</v>
+        <v>-1.2864601963182198</v>
       </c>
       <c r="B115">
-        <v>-0.40609795462144604</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-1.46080930780712</v>
+        <v>-1.2839990377502799</v>
       </c>
       <c r="B116">
-        <v>-0.40363647897203214</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-1.46080930780712</v>
+        <v>-1.2864601963182198</v>
       </c>
       <c r="B117">
-        <v>-0.40609795462144604</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-1.4681923742772001</v>
+        <v>-1.2766155845415899</v>
       </c>
       <c r="B118">
-        <v>-0.40609795462144604</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-1.47557547713006</v>
+        <v>-1.2790767318528899</v>
       </c>
       <c r="B119">
-        <v>-0.42578986210790815</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-1.4952639274130402</v>
+        <v>-1.2716933012391298</v>
       </c>
       <c r="B120">
-        <v>-0.43317437369941714</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-1.5149526300315601</v>
+        <v>-1.27415444100064</v>
       </c>
       <c r="B121">
-        <v>-0.43809739525580005</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-1.5124915285634102</v>
+        <v>-1.2643099047219299</v>
       </c>
       <c r="B122">
-        <v>-0.45040499701749004</v>
+        <v>-0.97697925606567404</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-1.51987484456929</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B123">
-        <v>-0.4627126662577371</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-1.53218044816515</v>
+        <v>-1.2544654294948498</v>
       </c>
       <c r="B124">
-        <v>-0.47502040184125705</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-1.53464158034057</v>
+        <v>-1.2569265425462699</v>
       </c>
       <c r="B125">
-        <v>-0.47994351439647409</v>
+        <v>-0.954824809205993</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-1.5272581952433302</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B126">
-        <v>-0.47994351439647409</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-1.53464158034057</v>
+        <v>-1.2544654294948498</v>
       </c>
       <c r="B127">
-        <v>-0.4725588494715881</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-1.5272581952433302</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B128">
-        <v>-0.47994351439647409</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-1.53464158034057</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B129">
-        <v>-0.48486663731230106</v>
+        <v>-0.97697925606567404</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-1.5247970745150801</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B130">
-        <v>-0.48240507456385207</v>
+        <v>-0.97697925606567404</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-1.53710271631357</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B131">
-        <v>-0.47994351439647409</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-1.5223359576207101</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B132">
-        <v>-0.4725588494715881</v>
+        <v>-0.99174899486974499</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-1.53710271631357</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B133">
-        <v>-0.4774819568192481</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-1.5297193197963701</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B134">
-        <v>-0.4774819568192481</v>
+        <v>-0.96713281103317594</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-1.5395638560750802</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B135">
-        <v>-0.4774819568192481</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-1.53218044816515</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B136">
-        <v>-0.4725588494715881</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-1.5395638560750802</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B137">
-        <v>-0.48240507456385207</v>
+        <v>-0.96713281103317594</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-1.53464158034057</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B138">
-        <v>-0.48240507456385207</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-1.5469472979999201</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B139">
-        <v>-0.47994351439647409</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-1.54202499961603</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B140">
-        <v>-0.50455923112844914</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-1.5494084528247201</v>
+        <v>-1.2421599221994499</v>
       </c>
       <c r="B141">
-        <v>-0.49963606749681311</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-1.53464158034057</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B142">
-        <v>-0.49717448945269005</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-1.54202499961603</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B143">
-        <v>-0.48240507456385207</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-1.5395638560750802</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B144">
-        <v>-0.4774819568192481</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-1.5469472979999201</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B145">
-        <v>-0.47994351439647409</v>
+        <v>-0.98190249290566201</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-1.5469472979999201</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B146">
-        <v>-0.47994351439647409</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-1.5469472979999201</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B147">
-        <v>-0.4774819568192481</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-1.5469472979999201</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B148">
-        <v>-0.48978977051607409</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-1.5469472979999201</v>
+        <v>-1.2224713136624299</v>
       </c>
       <c r="B149">
-        <v>-0.50209764805842805</v>
+        <v>-0.95236321619318498</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-1.5494084528247201</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B150">
-        <v>-0.50948240475737205</v>
+        <v>-0.94497845202352904</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-1.55186961139266</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B151">
-        <v>-0.51932878171640806</v>
+        <v>-0.93759371034776995</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>-1.55186961139266</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B152">
-        <v>-0.51686718378670804</v>
+        <v>-0.93513213483021496</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-1.55186961139266</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B153">
-        <v>-0.51194399529810508</v>
+        <v>-0.93513213483021496</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>-1.55186961139266</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B154">
-        <v>-0.51686718378670804</v>
+        <v>-0.93513213483021496</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-1.5494084528247201</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B155">
-        <v>-0.52179038209093009</v>
+        <v>-0.93759371034776995</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>-1.55186961139266</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B156">
-        <v>-0.52179038209093009</v>
+        <v>-0.92774742352781403</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-1.54202499961603</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B157">
-        <v>-0.52179038209093009</v>
+        <v>-0.93267056184831598</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-1.5444861469273301</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B158">
-        <v>-0.52425198490118508</v>
+        <v>-0.93267056184831598</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-1.53710271631357</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B159">
-        <v>-0.52425198490118508</v>
+        <v>-0.93020899141115398</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-1.5395638560750802</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B160">
-        <v>-0.54394489397971613</v>
+        <v>-0.93267056184831598</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-1.5297193197963701</v>
+        <v>-1.2003219329914399</v>
       </c>
       <c r="B161">
-        <v>-0.53656003517059414</v>
+        <v>-0.92774742352781403</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>-1.53464158034057</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B162">
-        <v>-0.53163680785554313</v>
+        <v>-0.92774742352781403</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-1.51987484456929</v>
+        <v>-1.2003219329914399</v>
       </c>
       <c r="B163">
-        <v>-0.52179038209093009</v>
+        <v>-0.93020899141115398</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-1.5223359576207101</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B164">
-        <v>-0.5144055883109131</v>
+        <v>-0.93513213483021496</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>-1.5124915285634102</v>
+        <v>-1.2052439894566098</v>
       </c>
       <c r="B165">
-        <v>-0.51932878171640806</v>
+        <v>-0.94005528839189301</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-1.51987484456929</v>
+        <v>-1.2224713136624299</v>
       </c>
       <c r="B166">
-        <v>-0.52425198490118508</v>
+        <v>-0.94497845202352904</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>-1.50018607959265</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B167">
-        <v>-0.5340984203179111</v>
+        <v>-0.954824809205993</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>-1.5051082474706601</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B168">
-        <v>-0.53656003517059414</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>-1.4854196704393001</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B169">
-        <v>-0.53656003517059414</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-1.4903417910044001</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B170">
-        <v>-0.5340984203179111</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-1.4804975657903301</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B171">
-        <v>-0.55132977397466509</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>-1.4952639274130402</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B172">
-        <v>-0.53902165240451305</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>-1.4903417910044001</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B173">
-        <v>-0.52671359013809604</v>
+        <v>-0.97697925606567404</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>-1.4977250015360102</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B174">
-        <v>-0.52179038209093009</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-1.4977250015360102</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B175">
-        <v>-0.51686718378670804</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>-1.5051082474706601</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B176">
-        <v>-0.52671359013809604</v>
+        <v>-0.98190249290566201</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>-1.50018607959265</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B177">
-        <v>-0.5340984203179111</v>
+        <v>-0.98190249290566201</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-1.5051082474706601</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B178">
-        <v>-0.52179038209093009</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>-1.5026471615738901</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B179">
-        <v>-0.51686718378670804</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>-1.5075693372738901</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B180">
-        <v>-0.51686718378670804</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>-1.5100304309744901</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B181">
-        <v>-0.52917519779257705</v>
+        <v>-0.93759371034776995</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>-1.5124915285634102</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B182">
-        <v>-0.54394489397971613</v>
+        <v>-0.92528585820738096</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>-1.5124915285634102</v>
+        <v>-1.2273934421583699</v>
       </c>
       <c r="B183">
-        <v>-0.54394489397971613</v>
+        <v>-0.93267056184831598</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>-1.5124915285634102</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B184">
-        <v>-0.54148327201058211</v>
+        <v>-0.94251686895350795</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>-1.5100304309744901</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B185">
-        <v>-0.53902165240451305</v>
+        <v>-0.95974800261148796</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>-1.5026471615738901</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B186">
-        <v>-0.53902165240451305</v>
+        <v>-0.95728640468178794</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>-1.4952639274130402</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B187">
-        <v>-0.52179038209093009</v>
+        <v>-0.954824809205993</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>-1.4878807287368701</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B188">
-        <v>-0.51194399529810508</v>
+        <v>-0.94251686895350795</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>-1.4903417910044001</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B189">
-        <v>-0.50455923112844914</v>
+        <v>-0.94005528839189301</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>-1.4854196704393001</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B190">
-        <v>-0.49717448945269005</v>
+        <v>-0.94251686895350795</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>-1.4804975657903301</v>
+        <v>-1.2224713136624299</v>
       </c>
       <c r="B191">
-        <v>-0.49471291393513506</v>
+        <v>-0.94005528839189301</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>-1.4804975657903301</v>
+        <v>-1.2224713136624299</v>
       </c>
       <c r="B192">
-        <v>-0.49471291393513506</v>
+        <v>-0.94744003759287099</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>-1.4829586161207702</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B193">
-        <v>-0.49471291393513506</v>
+        <v>-0.94744003759287099</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>-1.4804975657903301</v>
+        <v>-1.2273934421583699</v>
       </c>
       <c r="B194">
-        <v>-0.49717448945269005</v>
+        <v>-0.954824809205993</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>-1.4780365194570702</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B195">
-        <v>-0.48732820263273413</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>-1.47557547713006</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B196">
-        <v>-0.49225134095323608</v>
+        <v>-0.96220960298600999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>-1.47557547713006</v>
+        <v>-1.23723774649945</v>
       </c>
       <c r="B197">
-        <v>-0.49225134095323608</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>-1.4731144388183601</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B198">
-        <v>-0.48978977051607409</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>-1.4804975657903301</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B199">
-        <v>-0.49225134095323608</v>
+        <v>-0.96959441868765694</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>-1.46573134806588</v>
+        <v>-1.2446210159000499</v>
       </c>
       <c r="B200">
-        <v>-0.48732820263273413</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>-1.4780365194570702</v>
+        <v>-1.2593876594406399</v>
       </c>
       <c r="B201">
-        <v>-0.48732820263273413</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>-1.46573134806588</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B202">
-        <v>-0.48978977051607409</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>-1.4829586161207702</v>
+        <v>-1.2569265425462699</v>
       </c>
       <c r="B203">
-        <v>-0.49471291393513506</v>
+        <v>-0.98682573919791094</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>-1.47065340453105</v>
+        <v>-1.2421599221994499</v>
       </c>
       <c r="B204">
-        <v>-0.49963606749681311</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>-1.4878807287368701</v>
+        <v>-1.2520043202954398</v>
       </c>
       <c r="B205">
-        <v>-0.50455923112844914</v>
+        <v>-1.0114421098994599</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>-1.4780365194570702</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B206">
-        <v>-0.5144055883109131</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>-1.4903417910044001</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B207">
-        <v>-0.52179038209093009</v>
+        <v>-1.021288721802261</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>-1.4829586161207702</v>
+        <v>-1.1806338699204699</v>
       </c>
       <c r="B208">
-        <v>-0.52917519779257705</v>
+        <v>-1.008980462536176</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>-1.4952639274130402</v>
+        <v>-1.19786091083172</v>
       </c>
       <c r="B209">
-        <v>-0.52917519779257705</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>-1.4903417910044001</v>
+        <v>-1.1806338699204699</v>
       </c>
       <c r="B210">
-        <v>-0.52917519779257705</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>-1.5026471615738901</v>
+        <v>-1.2027829592027599</v>
       </c>
       <c r="B211">
-        <v>-0.53902165240451305</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>-1.4977250015360102</v>
+        <v>-1.1830948634649998</v>
       </c>
       <c r="B212">
-        <v>-0.53656003517059414</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>-1.5100304309744901</v>
+        <v>-1.2027829592027599</v>
       </c>
       <c r="B213">
-        <v>-0.5340984203179111</v>
+        <v>-0.97944087329959295</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>-1.5051082474706601</v>
+        <v>-1.1707899370747199</v>
       </c>
       <c r="B214">
-        <v>-0.54394489397971613</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>-1.5124915285634102</v>
+        <v>-1.1929388787033699</v>
       </c>
       <c r="B215">
-        <v>-0.54148327201058211</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>-1.5051082474706601</v>
+        <v>-1.17325091406816</v>
       </c>
       <c r="B216">
-        <v>-0.54148327201058211</v>
+        <v>-0.97697925606567404</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>-1.5124915285634102</v>
+        <v>-1.1880168628902799</v>
       </c>
       <c r="B217">
-        <v>-0.54394489397971613</v>
+        <v>-0.97205602875062302</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>-1.5051082474706601</v>
+        <v>-1.18555586112463</v>
       </c>
       <c r="B218">
-        <v>-0.52917519779257705</v>
+        <v>-0.96713281103317594</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>-1.5026471615738901</v>
+        <v>-1.2003219329914399</v>
       </c>
       <c r="B219">
-        <v>-0.51932878171640806</v>
+        <v>-0.95236321619318498</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>-1.5026471615738901</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B220">
-        <v>-0.49717448945269005</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>-1.4977250015360102</v>
+        <v>-1.19786091083172</v>
       </c>
       <c r="B221">
-        <v>-0.48486663731230106</v>
+        <v>-0.974517641212991</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>-1.49280285723281</v>
+        <v>-1.1904778687528799</v>
       </c>
       <c r="B222">
-        <v>-0.49225134095323608</v>
+        <v>-0.98436411487479603</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>-1.4731144388183601</v>
+        <v>-1.19786091083172</v>
       </c>
       <c r="B223">
-        <v>-0.50209764805842805</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>-1.47557547713006</v>
+        <v>-1.1904778687528799</v>
       </c>
       <c r="B224">
-        <v>-0.51932878171640806</v>
+        <v>-0.99174899486974499</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>-1.4780365194570702</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B225">
-        <v>-0.51686718378670804</v>
+        <v>-0.99421062620029799</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>-1.4780365194570702</v>
+        <v>-1.1953998927326799</v>
       </c>
       <c r="B226">
-        <v>-0.5144055883109131</v>
+        <v>-0.99913389580525103</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>-1.4804975657903301</v>
+        <v>-1.2027829592027599</v>
       </c>
       <c r="B227">
-        <v>-0.50209764805842805</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>-1.4804975657903301</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B228">
-        <v>-0.49963606749681311</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>-1.4780365194570702</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B229">
-        <v>-0.50209764805842805</v>
+        <v>-1.0040571746081008</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>-1.4878807287368701</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B230">
-        <v>-0.49963606749681311</v>
+        <v>-1.0015955340614791</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>-1.4878807287368701</v>
+        <v>-1.19786091083172</v>
       </c>
       <c r="B231">
-        <v>-0.50702081669779109</v>
+        <v>-1.006518817436028</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>-1.4977250015360102</v>
+        <v>-1.2003219329914399</v>
       </c>
       <c r="B232">
-        <v>-0.50702081669779109</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>-1.49280285723281</v>
+        <v>-1.19786091083172</v>
       </c>
       <c r="B233">
-        <v>-0.5144055883109131</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>-1.50018607959265</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B234">
-        <v>-0.52179038209093009</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>-1.4977250015360102</v>
+        <v>-1.21262710438263</v>
       </c>
       <c r="B235">
-        <v>-0.52179038209093009</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>-1.5026471615738901</v>
+        <v>-1.2150881507158899</v>
       </c>
       <c r="B236">
-        <v>-0.52425198490118508</v>
+        <v>-1.008980462536176</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>-1.50018607959265</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B237">
-        <v>-0.52425198490118508</v>
+        <v>-1.0114421098994599</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>-1.5100304309744901</v>
+        <v>-1.22493237592996</v>
       </c>
       <c r="B238">
-        <v>-0.52917519779257705</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>-1.5100304309744901</v>
+        <v>-1.2273934421583699</v>
       </c>
       <c r="B239">
-        <v>-0.53163680785554313</v>
+        <v>-1.013903759516793</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>-1.5247970745150801</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B240">
-        <v>-0.55379140530521809</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>-1.5124915285634102</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B241">
-        <v>-0.53163680785554313</v>
+        <v>-1.0360587060061199</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>-1.5223359576207101</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B242">
-        <v>-0.54640651830283105</v>
+        <v>-1.0557521390780011</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>-1.5075693372738901</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B243">
-        <v>-0.56117631316639904</v>
+        <v>-1.0877542511083829</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>-1.51741373536988</v>
+        <v>-1.24954321495712</v>
       </c>
       <c r="B244">
-        <v>-0.57102288900438014</v>
+        <v>-1.090215966095009</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>-1.4829586161207702</v>
+        <v>-1.2421599221994499</v>
       </c>
       <c r="B245">
-        <v>-0.57840784458220007</v>
+        <v>-1.0877542511083829</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>-1.4854196704393001</v>
+        <v>-1.24954321495712</v>
       </c>
       <c r="B246">
-        <v>-0.58086950090718115</v>
+        <v>-1.08529253809416</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>-1.4460432849949101</v>
+        <v>-1.2396988323962199</v>
       </c>
       <c r="B247">
-        <v>-0.56856124164109612</v>
+        <v>-1.08283082706142</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>-1.4632703259061601</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B248">
-        <v>-0.56117631316639904</v>
+        <v>-1.070522301938035</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>-1.4460432849949101</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B249">
-        <v>-0.55379140530521809</v>
+        <v>-1.0754457059429809</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>-1.4681923742772001</v>
+        <v>-1.2421599221994499</v>
       </c>
       <c r="B250">
-        <v>-0.54394489397971613</v>
+        <v>-1.0557521390780011</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>-1.44850427853944</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B251">
-        <v>-0.54394489397971613</v>
+        <v>-1.060675518432858</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>-1.4681923742772001</v>
+        <v>-1.24708211348897</v>
       </c>
       <c r="B252">
-        <v>-0.53902165240451305</v>
+        <v>-1.0532904525318059</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>-1.4361993521491601</v>
+        <v>-1.23231558646157</v>
       </c>
       <c r="B253">
-        <v>-0.53163680785554313</v>
+        <v>-1.0508287680852129</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>-1.4583482937778101</v>
+        <v>-1.2421599221994499</v>
       </c>
       <c r="B254">
-        <v>-0.53163680785554313</v>
+        <v>-1.0483670857473131</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>-1.4386603291426001</v>
+        <v>-1.2273934421583699</v>
       </c>
       <c r="B255">
-        <v>-0.53656003517059414</v>
+        <v>-1.0459054055271841</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>-1.45342627796472</v>
+        <v>-1.2347766645182099</v>
       </c>
       <c r="B256">
-        <v>-0.53163680785554313</v>
+        <v>-1.0434437274339139</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>-1.4509652761990701</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B257">
-        <v>-0.52671359013809604</v>
+        <v>-1.0459054055271841</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>-1.46573134806588</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B258">
-        <v>-0.51194399529810508</v>
+        <v>-1.0434437274339139</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>-1.46080930780712</v>
+        <v>-1.2224713136624299</v>
       </c>
       <c r="B259">
-        <v>-0.52425198490118508</v>
+        <v>-1.0409820514765888</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>-1.4632703259061601</v>
+        <v>-1.2298545123386</v>
       </c>
       <c r="B260">
-        <v>-0.5340984203179111</v>
+        <v>-1.0434437274339139</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>-1.45588728382732</v>
+        <v>-1.21754920104633</v>
       </c>
       <c r="B261">
-        <v>-0.54394489397971613</v>
+        <v>-1.0335970365111429</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>-1.4632703259061601</v>
+        <v>-1.22001025536486</v>
       </c>
       <c r="B262">
-        <v>-0.55379140530521809</v>
+        <v>-1.0335970365111429</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>-1.45588728382732</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B263">
-        <v>-0.55132977397466509</v>
+        <v>-1.0262120410962718</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>-1.46080930780712</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B264">
-        <v>-0.55379140530521809</v>
+        <v>-1.021288721802261</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>-1.46080930780712</v>
+        <v>-1.20770502374392</v>
       </c>
       <c r="B265">
-        <v>-0.55871467491017113</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>-1.4681923742772001</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B266">
-        <v>-0.56117631316639904</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>-1.4731144388183601</v>
+        <v>-1.2101660620556198</v>
       </c>
       <c r="B267">
-        <v>-0.56117631316639904</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>-1.4731144388183601</v>
+        <v>-1.2003219329914399</v>
       </c>
       <c r="B268">
-        <v>-0.56363795371302106</v>
+        <v>-1.01882706547728</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>-1.4731144388183601</v>
+        <v>-1.1880168628902799</v>
       </c>
       <c r="B269">
-        <v>-0.56117631316639904</v>
+        <v>-1.016365411379095</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>-1.4632703259061601</v>
+        <v>-1.1830948634649998</v>
       </c>
       <c r="B270">
-        <v>-0.5660995965409481</v>
+        <v>-0.96467120579626497</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>-1.46573134806588</v>
+        <v>-1.0674327721524299</v>
       </c>
       <c r="B271">
-        <v>-0.57348453862171311</v>
+        <v>-0.91543962273633694</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>-1.4632703259061601</v>
+        <v>-0.60489413088536992</v>
       </c>
       <c r="B272">
-        <v>-0.57348453862171311</v>
+        <v>-0.47733292414234008</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>-1.47557547713006</v>
+        <v>0.14500513870268028</v>
       </c>
       <c r="B273">
-        <v>-0.57594619048401507</v>
+        <v>0.2853122528868699</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>-1.4780365194570702</v>
+        <v>1.20076000174805</v>
       </c>
       <c r="B274">
-        <v>-0.57348453862171311</v>
+        <v>1.2364094978049802</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>-1.4804975657903301</v>
+        <v>2.21989000794991</v>
       </c>
       <c r="B275">
-        <v>-0.56856124164109612</v>
+        <v>2.2447545476024504</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>-1.4854196704393001</v>
+        <v>3.2678691750502202</v>
       </c>
       <c r="B276">
-        <v>-0.57102288900438014</v>
+        <v>3.1553707995553197</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>-1.4903417910044001</v>
+        <v>4.0326004207562907</v>
       </c>
       <c r="B277">
-        <v>-0.57348453862171311</v>
+        <v>3.9660475466519798</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>-1.49280285723281</v>
+        <v>4.5792030702101609</v>
       </c>
       <c r="B278">
-        <v>-0.57348453862171311</v>
+        <v>4.6042339501978002</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>-1.4977250015360102</v>
+        <v>4.6325828393097908</v>
       </c>
       <c r="B279">
-        <v>-0.57840784458220007</v>
+        <v>4.9470547072264193</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>-1.50018607959265</v>
+        <v>4.6568423800657506</v>
       </c>
       <c r="B280">
-        <v>-0.59563948511104015</v>
+        <v>4.9349058719535002</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>-1.5051082474706601</v>
+        <v>4.6665454952104604</v>
       </c>
       <c r="B281">
-        <v>-0.61533291818292113</v>
+        <v>4.9227564444725296</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>-1.5051082474706601</v>
+        <v>4.6665454952104604</v>
       </c>
       <c r="B282">
-        <v>-0.64733503021330308</v>
+        <v>4.8838743091200705</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>-1.5149526300315601</v>
+        <v>4.6641197540403105</v>
       </c>
       <c r="B283">
-        <v>-0.64979674519992914</v>
+        <v>4.8863046192763004</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>-1.5075693372738901</v>
+        <v>4.6616939877872703</v>
       </c>
       <c r="B284">
-        <v>-0.64733503021330308</v>
+        <v>4.8887349059121696</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>-1.5149526300315601</v>
+        <v>4.6592681964596494</v>
       </c>
       <c r="B285">
-        <v>-0.64487331719908014</v>
+        <v>4.8790136182801795</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>-1.5051082474706601</v>
+        <v>4.6592681964596494</v>
       </c>
       <c r="B286">
-        <v>-0.64241160616634008</v>
+        <v>4.8692919547259805</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>-1.5124915285634102</v>
+        <v>4.6568423800657506</v>
       </c>
       <c r="B287">
-        <v>-0.63010308104295509</v>
+        <v>4.8595699157875796</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>-1.50018607959265</v>
+        <v>4.6544165386138907</v>
       </c>
       <c r="B288">
-        <v>-0.63502648504790105</v>
+        <v>4.8522781405615891</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>-1.5075693372738901</v>
+        <v>4.6519906721123707</v>
       </c>
       <c r="B289">
-        <v>-0.61533291818292113</v>
+        <v>4.8401247139107397</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>-1.4977250015360102</v>
+        <v>4.6471388639935896</v>
       </c>
       <c r="B290">
-        <v>-0.62025629753777811</v>
+        <v>4.8376939584651399</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>-1.5124915285634102</v>
+        <v>4.6398609641507598</v>
       </c>
       <c r="B291">
-        <v>-0.61287123163672608</v>
+        <v>4.8352631796673595</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>-1.4977250015360102</v>
+        <v>4.6350089059093893</v>
       </c>
       <c r="B292">
-        <v>-0.61040954719013307</v>
+        <v>4.8474168400503306</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>-1.5075693372738901</v>
+        <v>4.6325828393097908</v>
       </c>
       <c r="B293">
-        <v>-0.60794786485223307</v>
+        <v>4.8595699157875796</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>-1.49280285723281</v>
+        <v>4.6228783232460398</v>
       </c>
       <c r="B294">
-        <v>-0.60548618463210413</v>
+        <v>4.8692919547259805</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>-1.50018607959265</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B295">
-        <v>-0.6030245065388341</v>
+        <v>4.874152833459739</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>-1.4854196704393001</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B296">
-        <v>-0.60548618463210413</v>
+        <v>4.8717224058278195</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>-1.4952639274130402</v>
+        <v>4.6131734081168094</v>
       </c>
       <c r="B297">
-        <v>-0.6030245065388341</v>
+        <v>4.8717224058278195</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>-1.4878807287368701</v>
+        <v>4.6180259155313497</v>
       </c>
       <c r="B298">
-        <v>-0.60056283058150906</v>
+        <v>4.8717224058278195</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>-1.4952639274130402</v>
+        <v>4.6228783232460398</v>
       </c>
       <c r="B299">
-        <v>-0.6030245065388341</v>
+        <v>4.8692919547259805</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>-1.4829586161207702</v>
+        <v>4.6204521318553304</v>
       </c>
       <c r="B300">
-        <v>-0.59317781561606309</v>
+        <v>4.86443098214618</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>-1.4854196704393001</v>
+        <v>4.6180259155313497</v>
       </c>
       <c r="B301">
-        <v>-0.59317781561606309</v>
+        <v>4.8717224058278195</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>-1.4731144388183601</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B302">
-        <v>-0.58579282020119205</v>
+        <v>4.8790136182801795</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>-1.47557547713006</v>
+        <v>4.6131734081168094</v>
       </c>
       <c r="B303">
-        <v>-0.58086950090718115</v>
+        <v>4.8960256246136602</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>-1.4731144388183601</v>
+        <v>4.6131734081168094</v>
       </c>
       <c r="B304">
-        <v>-0.57594619048401507</v>
+        <v>4.8960256246136602</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>-1.47557547713006</v>
+        <v>4.60346809445441</v>
       </c>
       <c r="B305">
-        <v>-0.57840784458220007</v>
+        <v>4.8814439754518997</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>-1.47557547713006</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B306">
-        <v>-0.57840784458220007</v>
+        <v>4.87658323761333</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>-1.46573134806588</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B307">
-        <v>-0.57840784458220007</v>
+        <v>4.8692919547259805</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>-1.45342627796472</v>
+        <v>4.60346809445441</v>
       </c>
       <c r="B308">
-        <v>-0.57594619048401507</v>
+        <v>4.85470875571745</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>-1.44850427853944</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B309">
-        <v>-0.52425198490118508</v>
+        <v>4.8376939584651399</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>-1.3328421872268701</v>
+        <v>4.60346809445441</v>
       </c>
       <c r="B310">
-        <v>-0.47502040184125705</v>
+        <v>4.8304015520489294</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>-0.87030354595981008</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B311">
-        <v>-3.6913703247260177E-2</v>
+        <v>4.8279707032451</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>-0.12040427637175988</v>
+        <v>4.5986152883396407</v>
       </c>
       <c r="B312">
-        <v>0.7257314737819498</v>
+        <v>4.8352631796673595</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>0.93535058667360982</v>
+        <v>4.6058944602033804</v>
       </c>
       <c r="B313">
-        <v>1.6768287187000601</v>
+        <v>4.8401247139107397</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1.9544805928754698</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B314">
-        <v>2.6851737684975303</v>
+        <v>4.844986154711739</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>3.0024597599757801</v>
+        <v>4.6083208010689809</v>
       </c>
       <c r="B315">
-        <v>3.5957900204503996</v>
+        <v>4.8498475020030796</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>3.7671910056818501</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B316">
-        <v>4.4064667675470597</v>
+        <v>4.8352631796673595</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>4.3137936551357203</v>
+        <v>4.6058944602033804</v>
       </c>
       <c r="B317">
-        <v>5.0446531710928797</v>
+        <v>4.8304015520489294</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>4.3671734242353502</v>
+        <v>4.60346809445441</v>
       </c>
       <c r="B318">
-        <v>5.3874739281214996</v>
+        <v>4.8255398311227502</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>4.39143296499131</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B319">
-        <v>5.3753250928485796</v>
+        <v>4.8085230740547296</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>4.4011360801360198</v>
+        <v>4.60346809445441</v>
       </c>
       <c r="B320">
-        <v>5.3631756653676099</v>
+        <v>4.7987987011618589</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>4.4011360801360198</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B321">
-        <v>5.3242935300151499</v>
+        <v>4.8109541091710497</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>4.3987103389658699</v>
+        <v>4.6083208010689809</v>
       </c>
       <c r="B322">
-        <v>5.3267238401713799</v>
+        <v>4.8231089356902999</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>4.3962845727128297</v>
+        <v>4.6180259155313497</v>
       </c>
       <c r="B323">
-        <v>5.32915412680725</v>
+        <v>4.8352631796673595</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>4.3938587813852097</v>
+        <v>4.6155996742824001</v>
       </c>
       <c r="B324">
-        <v>5.3194328391752599</v>
+        <v>4.8474168400503306</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>4.3938587813852097</v>
+        <v>4.6277306311943693</v>
       </c>
       <c r="B325">
-        <v>5.30971117562106</v>
+        <v>4.844986154711739</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>4.39143296499131</v>
+        <v>4.6204521318553304</v>
       </c>
       <c r="B326">
-        <v>5.2999891366826599</v>
+        <v>4.8474168400503306</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>4.3890071235394501</v>
+        <v>4.6228783232460398</v>
       </c>
       <c r="B327">
-        <v>5.2926973614566695</v>
+        <v>4.8474168400503306</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>4.3865812570379301</v>
+        <v>4.6131734081168094</v>
       </c>
       <c r="B328">
-        <v>5.2805439348058201</v>
+        <v>4.8012298292323692</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>4.3817294489191498</v>
+        <v>4.6180259155313497</v>
       </c>
       <c r="B329">
-        <v>5.2781131793602194</v>
+        <v>4.8012298292323692</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>4.3744515490763201</v>
+        <v>4.6010417038303899</v>
       </c>
       <c r="B330">
-        <v>5.2756824005624399</v>
+        <v>4.8036609340769694</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>4.3695994908349496</v>
+        <v>4.5792030702101609</v>
       </c>
       <c r="B331">
-        <v>5.28783606094541</v>
+        <v>4.796367549873839</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>4.3671734242353502</v>
+        <v>4.5573624284529402</v>
       </c>
       <c r="B332">
-        <v>5.2999891366826599</v>
+        <v>4.7890739567890392</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>4.3574689081716</v>
+        <v>4.5355197846298196</v>
       </c>
       <c r="B333">
-        <v>5.30971117562106</v>
+        <v>4.7550344338631501</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>4.3501902592079595</v>
+        <v>4.3121260123375809</v>
       </c>
       <c r="B334">
-        <v>5.3145720543548194</v>
+        <v>4.6626187207042999</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>4.3501902592079595</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B335">
-        <v>5.3121416267228998</v>
+        <v>4.5847694688537004</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>4.3477639930423697</v>
+        <v>4.2440961970250193</v>
       </c>
       <c r="B336">
-        <v>5.3121416267228998</v>
+        <v>4.5458361953966797</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>4.35261650045691</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B337">
-        <v>5.3121416267228998</v>
+        <v>4.5093310570571994</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>4.3574689081716</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B338">
-        <v>5.30971117562106</v>
+        <v>4.5141986982146296</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>4.3550427167808898</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B339">
-        <v>5.3048502030412594</v>
+        <v>4.521499993213359</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>4.35261650045691</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B340">
-        <v>5.3121416267228998</v>
+        <v>4.523933713715719</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>4.3501902592079595</v>
+        <v>4.2440961970250193</v>
       </c>
       <c r="B341">
-        <v>5.3194328391752599</v>
+        <v>4.521499993213359</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>4.3477639930423697</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B342">
-        <v>5.3364448455087397</v>
+        <v>4.5190662504567403</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>4.3477639930423697</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B343">
-        <v>5.3364448455087397</v>
+        <v>4.5190662504567403</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>4.3380586793799703</v>
+        <v>4.2343761348541502</v>
       </c>
       <c r="B344">
-        <v>5.32186319634698</v>
+        <v>4.5190662504567403</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>4.3356322887559502</v>
+        <v>4.2270858403507994</v>
       </c>
       <c r="B345">
-        <v>5.3170024585084095</v>
+        <v>4.4728209210488092</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>4.3356322887559502</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B346">
-        <v>5.30971117562106</v>
+        <v>4.4752550850251893</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>4.3380586793799703</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B347">
-        <v>5.2951279766125294</v>
+        <v>4.4655182966458504</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>4.3356322887559502</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B348">
-        <v>5.2781131793602194</v>
+        <v>4.455781155319869</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>4.3380586793799703</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B349">
-        <v>5.2708207729440097</v>
+        <v>4.4630840443818798</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>4.3356322887559502</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B350">
-        <v>5.2683899241401795</v>
+        <v>4.4703867349877999</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>4.3332058732652001</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B351">
-        <v>5.2756824005624399</v>
+        <v>4.5068972031564396</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>4.3404850451289398</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B352">
-        <v>5.2805439348058201</v>
+        <v>4.5093310570571994</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>4.3356322887559502</v>
+        <v>4.2100743282976207</v>
       </c>
       <c r="B353">
-        <v>5.2854053756068193</v>
+        <v>4.5093310570571994</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>4.3429113859945403</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B354">
-        <v>5.2902667228981599</v>
+        <v>4.5093310570571994</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>4.3356322887559502</v>
+        <v>4.20521368447322</v>
       </c>
       <c r="B355">
-        <v>5.2756824005624399</v>
+        <v>4.4922936137774894</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>4.3404850451289398</v>
+        <v>4.2173651176105693</v>
       </c>
       <c r="B356">
-        <v>5.2708207729440097</v>
+        <v>4.4898596046310892</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>4.3380586793799703</v>
+        <v>4.2100743282976207</v>
       </c>
       <c r="B357">
-        <v>5.2659590520178297</v>
+        <v>4.4849915199147095</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>4.3501902592079595</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B358">
-        <v>5.2489422949498099</v>
+        <v>4.4825574443616993</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>4.3380586793799703</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B359">
-        <v>5.2392179220569393</v>
+        <v>4.4825574443616993</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>4.3501902592079595</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B360">
-        <v>5.2513733300661301</v>
+        <v>4.4874255733406692</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>4.3429113859945403</v>
+        <v>4.2270858403507994</v>
       </c>
       <c r="B361">
-        <v>5.2635281565853793</v>
+        <v>4.4874255733406692</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>4.35261650045691</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B362">
-        <v>5.2756824005624399</v>
+        <v>4.4874255733406692</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>4.3501902592079595</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B363">
-        <v>5.28783606094541</v>
+        <v>4.4849915199147095</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>4.3623212161199296</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B364">
-        <v>5.2854053756068193</v>
+        <v>4.4679525268506506</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>4.3550427167808898</v>
+        <v>4.2270858403507994</v>
       </c>
       <c r="B365">
-        <v>5.28783606094541</v>
+        <v>4.4509124524716501</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>4.3574689081716</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B366">
-        <v>5.28783606094541</v>
+        <v>4.4241330150395495</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>4.3477639930423697</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B367">
-        <v>5.2416490501274495</v>
+        <v>4.3997857705680889</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>4.35261650045691</v>
+        <v>4.2343761348541502</v>
       </c>
       <c r="B368">
-        <v>5.2416490501274495</v>
+        <v>4.3803064028359291</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>4.3356322887559502</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B369">
-        <v>5.2440801549720497</v>
+        <v>4.3876113291828496</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>4.3137936551357203</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B370">
-        <v>5.2367867707689193</v>
+        <v>4.3949160594439505</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>4.2919530133784995</v>
+        <v>4.2197953336349805</v>
       </c>
       <c r="B371">
-        <v>5.2294931776841196</v>
+        <v>4.4070901735093795</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>4.2701103695553799</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B372">
-        <v>5.1954536547582295</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>4.0467165972631403</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B373">
-        <v>5.1030379415993794</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>3.9884064659142</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B374">
-        <v>5.0251886897487799</v>
+        <v>4.41439437975278</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>3.9786867819505796</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B375">
-        <v>4.9862554162917601</v>
+        <v>4.4241330150395495</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>3.9811167384194102</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B376">
-        <v>4.9497502779522797</v>
+        <v>4.4338712996894589</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>3.9835466712418803</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B377">
-        <v>4.9546179191097099</v>
+        <v>4.4411747827443993</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>3.9835466712418803</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B378">
-        <v>4.9619192141084394</v>
+        <v>4.4436092331588295</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>3.9859765804096101</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B379">
-        <v>4.9643529346107993</v>
+        <v>4.4119596662077996</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>3.9786867819505796</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B380">
-        <v>4.9619192141084394</v>
+        <v>4.4216983890688191</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>3.97382679810746</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B381">
-        <v>4.9594854713518197</v>
+        <v>4.429002201228089</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>3.97139677074997</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B382">
-        <v>4.9594854713518197</v>
+        <v>4.4436092331588295</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>3.9689667197797096</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B383">
-        <v>4.9594854713518197</v>
+        <v>4.4582154737103998</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>3.9616764252763597</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B384">
-        <v>4.9132401419438896</v>
+        <v>4.4533468149041191</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>3.9641065470345103</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B385">
-        <v>4.9156743059202697</v>
+        <v>4.4509124524716501</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>3.9568161110309799</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B386">
-        <v>4.9059375175409299</v>
+        <v>4.4509124524716501</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>3.9568161110309799</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B387">
-        <v>4.8962003762149493</v>
+        <v>4.455781155319869</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>3.9568161110309799</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B388">
-        <v>4.9035032652769601</v>
+        <v>4.4582154737103998</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>3.9543859185605399</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B389">
-        <v>4.9108059558828794</v>
+        <v>4.4630840443818798</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>3.9543859185605399</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B390">
-        <v>4.9473164240515199</v>
+        <v>4.4338712996894589</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>3.9543859185605399</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B391">
-        <v>4.9497502779522797</v>
+        <v>4.4216983890688191</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>3.9446649132231801</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B392">
-        <v>4.9497502779522797</v>
+        <v>4.419263741191779</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>3.9543859185605399</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B393">
-        <v>4.9497502779522797</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>3.9398042693987803</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B394">
-        <v>4.9327128346725697</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>3.9519557025361296</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B395">
-        <v>4.9302788255261696</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>3.9446649132231801</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B396">
-        <v>4.9254107408097898</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3.9641065470345103</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B397">
-        <v>4.9229766652567797</v>
+        <v>4.4216983890688191</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>3.9543859185605399</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B398">
-        <v>4.9229766652567797</v>
+        <v>4.419263741191779</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>3.9811167384194102</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B399">
-        <v>4.9278447942357495</v>
+        <v>4.4241330150395495</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>3.9616764252763597</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B400">
-        <v>4.9278447942357495</v>
+        <v>4.4265676190954704</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>3.9835466712418803</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B401">
-        <v>4.9278447942357495</v>
+        <v>4.429002201228089</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>3.9665366452050899</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B402">
-        <v>4.9254107408097898</v>
+        <v>4.419263741191779</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3.9835466712418803</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B403">
-        <v>4.90837174774573</v>
+        <v>4.4070901735093795</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>3.9616764252763597</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B404">
-        <v>4.8913316733667296</v>
+        <v>4.3997857705680889</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>3.97139677074997</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B405">
-        <v>4.8645522359346298</v>
+        <v>4.3924811711583995</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>3.9543859185605399</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B406">
-        <v>4.8402049914631693</v>
+        <v>4.4022205933896803</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>3.9689667197797096</v>
+        <v>4.2805430573712897</v>
       </c>
       <c r="B407">
-        <v>4.8207256237310094</v>
+        <v>4.4095249307905</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>3.9568161110309799</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B408">
-        <v>4.8280305500779299</v>
+        <v>4.429002201228089</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>3.9665366452050899</v>
+        <v>4.2829726582635406</v>
       </c>
       <c r="B409">
-        <v>4.8353352803390299</v>
+        <v>4.4265676190954704</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>3.9543859185605399</v>
+        <v>4.2756837843036504</v>
       </c>
       <c r="B410">
-        <v>4.8475093944044598</v>
+        <v>4.3973509259166796</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>3.9641065470345103</v>
+        <v>4.2878317887229507</v>
       </c>
       <c r="B411">
-        <v>4.8572482923120193</v>
+        <v>4.3827414000580394</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>3.9568161110309799</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B412">
-        <v>4.8572482923120193</v>
+        <v>4.3730012806327689</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>3.9665366452050899</v>
+        <v>4.2854022353835592</v>
       </c>
       <c r="B413">
-        <v>4.8548136006478595</v>
+        <v>4.3730012806327689</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>3.9641065470345103</v>
+        <v>4.2756837843036504</v>
       </c>
       <c r="B414">
-        <v>4.8645522359346298</v>
+        <v>4.3730012806327689</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>3.97382679810746</v>
+        <v>4.2829726582635406</v>
       </c>
       <c r="B415">
-        <v>4.8742905205845393</v>
+        <v>4.3803064028359291</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>3.9835466712418803</v>
+        <v>4.2781134327151893</v>
       </c>
       <c r="B416">
-        <v>4.8815940036394796</v>
+        <v>4.3997857705680889</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>3.9859765804096101</v>
+        <v>4.2854022353835592</v>
       </c>
       <c r="B417">
-        <v>4.8840284540539098</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>3.9859765804096101</v>
+        <v>4.2829726582635406</v>
       </c>
       <c r="B418">
-        <v>4.8523788871028799</v>
+        <v>4.41439437975278</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3.9884064659142</v>
+        <v>4.2781134327151893</v>
       </c>
       <c r="B419">
-        <v>4.8621176099638994</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>3.9908363277472603</v>
+        <v>4.2756837843036504</v>
       </c>
       <c r="B420">
-        <v>4.8694214221231693</v>
+        <v>4.4168290714169398</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3.9932661659003799</v>
+        <v>4.2708244162477396</v>
       </c>
       <c r="B421">
-        <v>4.8840284540539098</v>
+        <v>4.4070901735093795</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>3.9908363277472603</v>
+        <v>4.2708244162477396</v>
       </c>
       <c r="B422">
-        <v>4.8986346946054793</v>
+        <v>4.3973509259166796</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>3.9884064659142</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B423">
-        <v>4.8937660357991994</v>
+        <v>4.3876113291828496</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>3.9859765804096101</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B424">
-        <v>4.8913316733667296</v>
+        <v>4.3851763755098503</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>3.9908363277472603</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B425">
-        <v>4.8913316733667296</v>
+        <v>4.3851763755098503</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>3.9956959803651904</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B426">
-        <v>4.8962003762149493</v>
+        <v>4.3827414000580394</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>3.9884064659142</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B427">
-        <v>4.8986346946054793</v>
+        <v>4.3803064028359291</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>3.9981257711332701</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B428">
-        <v>4.9035032652769601</v>
+        <v>4.3778713838520105</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>3.9884064659142</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B429">
-        <v>4.8742905205845393</v>
+        <v>4.3876113291828496</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>4.0005555381962399</v>
+        <v>4.2708244162477396</v>
       </c>
       <c r="B430">
-        <v>4.8621176099638994</v>
+        <v>4.3730012806327689</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>3.9932661659003799</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B431">
-        <v>4.8596829620868593</v>
+        <v>4.3583904495763797</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>3.9956959803651904</v>
+        <v>4.2805430573712897</v>
       </c>
       <c r="B432">
-        <v>4.8572482923120193</v>
+        <v>4.3535199989848703</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>3.9859765804096101</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B433">
-        <v>4.8572482923120193</v>
+        <v>4.3462141606071789</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>3.9932661659003799</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B434">
-        <v>4.8572482923120193</v>
+        <v>4.3486494617204503</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>3.9811167384194102</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B435">
-        <v>4.8572482923120193</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>3.9932661659003799</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B436">
-        <v>4.8621176099638994</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>3.9811167384194102</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B437">
-        <v>4.8596829620868593</v>
+        <v>4.3559552351189996</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>3.9932661659003799</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B438">
-        <v>4.8645522359346298</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>3.9835466712418803</v>
+        <v>4.2343761348541502</v>
       </c>
       <c r="B439">
-        <v>4.8669868399905498</v>
+        <v>4.3413434934610393</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>3.9981257711332701</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B440">
-        <v>4.8694214221231693</v>
+        <v>4.3437788378512003</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>3.9884064659142</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B441">
-        <v>4.8596829620868593</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>4.0005555381962399</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B442">
-        <v>4.8475093944044598</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>3.9908363277472603</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B443">
-        <v>4.8402049914631693</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>4.0029852815457199</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B444">
-        <v>4.8329003920534799</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>3.9956959803651904</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B445">
-        <v>4.8426398142847598</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>4.01513364229685</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B446">
-        <v>4.8499441516855795</v>
+        <v>4.3291664472953695</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>4.0029852815457199</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B447">
-        <v>4.8694214221231693</v>
+        <v>4.3316018997287795</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>4.0175632431891</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B448">
-        <v>4.8669868399905498</v>
+        <v>4.3291664472953695</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>4.0102743692292098</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B449">
-        <v>4.83777014681176</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>4.0224223736485101</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B450">
-        <v>4.8231606209531197</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>4.0078446970705901</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B451">
-        <v>4.8134205015278493</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>4.0199928203091195</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B452">
-        <v>4.8134205015278493</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>4.0102743692292098</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B453">
-        <v>4.8134205015278493</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>4.0175632431891</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B454">
-        <v>4.8207256237310094</v>
+        <v>4.3169888615519501</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>4.0127040176407496</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B455">
-        <v>4.8402049914631693</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>4.0199928203091195</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B456">
-        <v>4.8572482923120193</v>
+        <v>4.3364727398122103</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>4.0175632431891</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B457">
-        <v>4.8548136006478595</v>
+        <v>4.3413434934610393</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>4.0127040176407496</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B458">
-        <v>4.8572482923120193</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>4.0102743692292098</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B459">
-        <v>4.8572482923120193</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>4.0054150011732998</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B460">
-        <v>4.8475093944044598</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>4.0054150011732998</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B461">
-        <v>4.83777014681176</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>4.0078446970705901</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B462">
-        <v>4.8280305500779299</v>
+        <v>4.3169888615519501</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>4.0078446970705901</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B463">
-        <v>4.8255955964049297</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>4.0029852815457199</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B464">
-        <v>4.8255955964049297</v>
+        <v>4.3072464051765103</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>4.0029852815457199</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B465">
-        <v>4.8231606209531197</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>3.9956959803651904</v>
+        <v>4.2465261534938499</v>
       </c>
       <c r="B466">
-        <v>4.8207256237310094</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>4.0005555381962399</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B467">
-        <v>4.8182906047470899</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>3.9956959803651904</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B468">
-        <v>4.8280305500779299</v>
+        <v>4.3048107372951989</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>4.0054150011732998</v>
+        <v>4.2440961970250193</v>
       </c>
       <c r="B469">
-        <v>4.8134205015278493</v>
+        <v>4.2950678508756592</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>3.9981257711332701</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B470">
-        <v>4.79880967047146</v>
+        <v>4.2804528775007302</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>4.01513364229685</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B471">
-        <v>4.7939392198799498</v>
+        <v>4.2853246210342295</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>3.9981257711332701</v>
+        <v>4.2270858403507994</v>
       </c>
       <c r="B472">
-        <v>4.7866333815022593</v>
+        <v>4.2901962788485903</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>4.0005555381962399</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B473">
-        <v>4.7890686826155298</v>
+        <v>4.2975036046976403</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>3.9981257711332701</v>
+        <v>4.2246556950134906</v>
       </c>
       <c r="B474">
-        <v>4.7915039620775994</v>
+        <v>4.3023750479159304</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>3.9884064659142</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B475">
-        <v>4.7915039620775994</v>
+        <v>4.3096820515513592</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>3.9811167384194102</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B476">
-        <v>4.79637445601408</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>3.9762568018437996</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B477">
-        <v>4.7915039620775994</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3.9689667197797096</v>
+        <v>4.2343761348541502</v>
       </c>
       <c r="B478">
-        <v>4.7817627143561197</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>3.9665366452050899</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B479">
-        <v>4.7841980587462798</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>3.9665366452050899</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B480">
-        <v>4.7647146985828099</v>
+        <v>4.3072464051765103</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>3.9641065470345103</v>
+        <v>4.2440961970250193</v>
       </c>
       <c r="B481">
-        <v>4.7549725006426797</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>3.9641065470345103</v>
+        <v>4.2368061858244097</v>
       </c>
       <c r="B482">
-        <v>4.7549725006426797</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>3.9665366452050899</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B483">
-        <v>4.7598436427108393</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>3.9641065470345103</v>
+        <v>4.2392362131819006</v>
       </c>
       <c r="B484">
-        <v>4.7671501941739196</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>3.97382679810746</v>
+        <v>4.2246556950134906</v>
       </c>
       <c r="B485">
-        <v>4.7695856681904498</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>3.9762568018437996</v>
+        <v>4.2246556950134906</v>
       </c>
       <c r="B486">
-        <v>4.7720211206238599</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>3.9762568018437996</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B487">
-        <v>4.7695856681904498</v>
+        <v>4.3121176764112299</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>3.9762568018437996</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B488">
-        <v>4.7671501941739196</v>
+        <v>4.3072464051765103</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>3.9762568018437996</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B489">
-        <v>4.7598436427108393</v>
+        <v>4.3048107372951989</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>3.9811167384194102</v>
+        <v>4.2246556950134906</v>
       </c>
       <c r="B490">
-        <v>4.7549725006426797</v>
+        <v>4.3023750479159304</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>3.9859765804096101</v>
+        <v>4.2222255261054205</v>
       </c>
       <c r="B491">
-        <v>4.7549725006426797</v>
+        <v>4.2975036046976403</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>3.9908363277472603</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B492">
-        <v>4.7525368973063093</v>
+        <v>4.3023750479159304</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>3.9981257711332701</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B493">
-        <v>4.7574080824470295</v>
+        <v>4.3048107372951989</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>3.9981257711332701</v>
+        <v>4.22951596210895</v>
       </c>
       <c r="B494">
-        <v>4.7598436427108393</v>
+        <v>4.3096820515513592</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>3.9981257711332701</v>
+        <v>4.2343761348541502</v>
       </c>
       <c r="B495">
-        <v>4.7768919607072897</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>3.9981257711332701</v>
+        <v>4.2416662169182402</v>
       </c>
       <c r="B496">
-        <v>4.7817627143561197</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>3.9981257711332701</v>
+        <v>4.2489560863163209</v>
       </c>
       <c r="B497">
-        <v>4.7744565514656401</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3.9956959803651904</v>
+        <v>4.2538158809886397</v>
       </c>
       <c r="B498">
-        <v>4.7647146985828099</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>3.9956959803651904</v>
+        <v>4.2586755809748205</v>
       </c>
       <c r="B499">
-        <v>4.76227918142561</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>3.9932661659003799</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B500">
-        <v>4.76227918142561</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>3.9884064659142</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B501">
-        <v>4.7574080824470295</v>
+        <v>4.3340373305705597</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>3.9908363277472603</v>
+        <v>4.2756837843036504</v>
       </c>
       <c r="B502">
-        <v>4.7525368973063093</v>
+        <v>4.3462141606071789</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>3.9859765804096101</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B503">
-        <v>4.7476656260715897</v>
+        <v>4.3486494617204503</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>3.9908363277472603</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B504">
-        <v>4.7647146985828099</v>
+        <v>4.3535199989848703</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>3.9811167384194102</v>
+        <v>4.2683946966201596</v>
       </c>
       <c r="B505">
-        <v>4.7598436427108393</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>3.9884064659142</v>
+        <v>4.2756837843036504</v>
       </c>
       <c r="B506">
-        <v>4.7549725006426797</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>3.97139677074997</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B507">
-        <v>4.7452299581902793</v>
+        <v>4.35108474118252</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>3.9786867819505796</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B508">
-        <v>4.7354870717707396</v>
+        <v>4.3364727398122103</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>3.9641065470345103</v>
+        <v>4.2611053954396301</v>
       </c>
       <c r="B509">
-        <v>4.7208720983958097</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>3.97139677074997</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B510">
-        <v>4.7257438419293099</v>
+        <v>4.3169888615519501</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>3.9616764252763597</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B511">
-        <v>4.7306154997436698</v>
+        <v>4.3194244218157589</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>3.9665366452050899</v>
+        <v>4.2732541121450307</v>
       </c>
       <c r="B512">
-        <v>4.7379228255927197</v>
+        <v>4.3145532797475994</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>3.95924627993905</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B513">
-        <v>4.7427942688110099</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>3.97382679810746</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B514">
-        <v>4.7501012724464395</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>3.9665366452050899</v>
+        <v>4.2513859954840498</v>
       </c>
       <c r="B515">
-        <v>4.7525368973063093</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>3.97382679810746</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B516">
-        <v>4.7549725006426797</v>
+        <v>4.3291664472953695</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>3.9689667197797096</v>
+        <v>4.2562457428217009</v>
       </c>
       <c r="B517">
-        <v>4.7525368973063093</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>3.9762568018437996</v>
+        <v>4.2708244162477396</v>
       </c>
       <c r="B518">
-        <v>4.7525368973063093</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>3.97139677074997</v>
+        <v>4.2659649532706805</v>
       </c>
       <c r="B519">
-        <v>4.7476656260715897</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>3.9786867819505796</v>
+        <v>4.2781134327151893</v>
       </c>
       <c r="B520">
-        <v>4.7525368973063093</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>3.97139677074997</v>
+        <v>4.2708244162477396</v>
       </c>
       <c r="B521">
-        <v>4.7525368973063093</v>
+        <v>4.3267309732788402</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>3.97382679810746</v>
+        <v>4.2635351862077098</v>
       </c>
       <c r="B522">
-        <v>4.76227918142561</v>
+        <v>4.3242954776877305</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>3.97382679810746</v>
+        <v>4.2319460602795296</v>
       </c>
       <c r="B523">
-        <v>4.7647146985828099</v>
+        <v>4.3218599605305297</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>3.95924627993905</v>
+        <v>4.16389442293206</v>
       </c>
       <c r="B524">
-        <v>4.7647146985828099</v>
+        <v>4.1976201885015101</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>3.95924627993905</v>
+        <v>3.6212733137189601</v>
       </c>
       <c r="B525">
-        <v>4.76227918142561</v>
+        <v>3.6928007308012796</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>3.9665366452050899</v>
+        <v>2.7528524803762404</v>
       </c>
       <c r="B526">
-        <v>4.7525368973063093</v>
+        <v>2.7419488886689094</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>3.9665366452050899</v>
+        <v>1.46803243061902</v>
       </c>
       <c r="B527">
-        <v>4.7476656260715897</v>
+        <v>1.4942094333409399</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>3.9641065470345103</v>
+        <v>0.16957922841827999</v>
       </c>
       <c r="B528">
-        <v>4.7452299581902793</v>
+        <v>1.2299702980310023E-2</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>3.95924627993905</v>
+        <v>-1.2692321652661298</v>
       </c>
       <c r="B529">
-        <v>4.7427942688110099</v>
+        <v>-1.4939571068254349</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>3.9568161110309799</v>
+        <v>-2.7068805638229558</v>
       </c>
       <c r="B530">
-        <v>4.7379228255927197</v>
+        <v>-2.9142701827642603</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>3.9641065470345103</v>
+        <v>-4.1735266435169702</v>
       </c>
       <c r="B531">
-        <v>4.7427942688110099</v>
+        <v>-4.2764965693583008</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>3.9641065470345103</v>
+        <v>-5.5346580908030294</v>
       </c>
       <c r="B532">
-        <v>4.7452299581902793</v>
+        <v>-5.4078270267061495</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>3.9641065470345103</v>
+        <v>-6.7086363926659196</v>
       </c>
       <c r="B533">
-        <v>4.7501012724464395</v>
+        <v>-6.3993251018183006</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>3.9689667197797096</v>
+        <v>-7.7130419734946596</v>
       </c>
       <c r="B534">
-        <v>4.7598436427108393</v>
+        <v>-7.1563480935988402</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>3.9762568018437996</v>
+        <v>-8.4489856811654001</v>
       </c>
       <c r="B535">
-        <v>4.7671501941739196</v>
+        <v>-7.8141244659426601</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>3.9835466712418803</v>
+        <v>-9.1028080399275382</v>
       </c>
       <c r="B536">
-        <v>4.7744565514656401</v>
+        <v>-8.2687474622218105</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>3.9884064659142</v>
+        <v>-9.5029832128282994</v>
       </c>
       <c r="B537">
-        <v>4.7744565514656401</v>
+        <v>-8.4532772941262095</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>3.9932661659003799</v>
+        <v>-9.5441739295707499</v>
       </c>
       <c r="B538">
-        <v>4.7744565514656401</v>
+        <v>-8.5430629164877008</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>4.0005555381962399</v>
+        <v>-9.5635551936336292</v>
       </c>
       <c r="B539">
-        <v>4.7744565514656401</v>
+        <v>-8.5551934991510503</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>4.0005555381962399</v>
+        <v>-9.5223680147985892</v>
       </c>
       <c r="B540">
-        <v>4.7744565514656401</v>
+        <v>-8.5212262970720509</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>4.0102743692292098</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B541">
-        <v>4.7866333815022593</v>
+        <v>-8.5139469760329209</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>4.0029852815457199</v>
+        <v>-9.4884435228612887</v>
       </c>
       <c r="B542">
-        <v>4.7890686826155298</v>
+        <v>-8.523652687696071</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>4.0078446970705901</v>
+        <v>-9.4957134843324695</v>
       </c>
       <c r="B543">
-        <v>4.7939392198799498</v>
+        <v>-8.5309317102845608</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>4.0029852815457199</v>
+        <v>-9.5199450053848995</v>
       </c>
       <c r="B544">
-        <v>4.7915039620775994</v>
+        <v>-8.5430629164877008</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>4.0102743692292098</v>
+        <v>-9.5514420992045181</v>
       </c>
       <c r="B545">
-        <v>4.7915039620775994</v>
+        <v>-8.54548908293682</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>4.0005555381962399</v>
+        <v>-9.5659777342012084</v>
       </c>
       <c r="B546">
-        <v>4.7915039620775994</v>
+        <v>-8.55276743255145</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>4.0078446970705901</v>
+        <v>-9.5659777342012084</v>
       </c>
       <c r="B547">
-        <v>4.7768919607072897</v>
+        <v>-8.5624715490175696</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>3.9956959803651904</v>
+        <v>-9.5465966788441285</v>
       </c>
       <c r="B548">
-        <v>4.7671501941739196</v>
+        <v>-8.55276743255145</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>4.0078446970705901</v>
+        <v>-9.5296368871451591</v>
       </c>
       <c r="B549">
-        <v>4.7574080824470295</v>
+        <v>-8.5503413409770097</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>3.9981257711332701</v>
+        <v>-9.5247909982353605</v>
       </c>
       <c r="B550">
-        <v>4.7598436427108393</v>
+        <v>-8.5503413409770097</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>4.0078446970705901</v>
+        <v>-9.5199450053848995</v>
       </c>
       <c r="B551">
-        <v>4.7549725006426797</v>
+        <v>-8.5576195407674707</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>3.9908363277472603</v>
+        <v>-9.5150989086597484</v>
       </c>
       <c r="B552">
-        <v>4.76227918142561</v>
+        <v>-8.5648975156346197</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>4.0005555381962399</v>
+        <v>-9.5078295689513794</v>
       </c>
       <c r="B553">
-        <v>4.7671501941739196</v>
+        <v>-8.5794527897013104</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>3.9859765804096101</v>
+        <v>-9.5005599958962605</v>
       </c>
       <c r="B554">
-        <v>4.7671501941739196</v>
+        <v>-8.5891558045310799</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>3.9981257711332701</v>
+        <v>-9.4981367530615692</v>
       </c>
       <c r="B555">
-        <v>4.7695856681904498</v>
+        <v>-8.596432802137711</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>3.9908363277472603</v>
+        <v>-9.4981367530615692</v>
       </c>
       <c r="B556">
-        <v>4.7647146985828099</v>
+        <v>-8.606135113832611</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>4.0054150011732998</v>
+        <v>-9.4981367530615692</v>
       </c>
       <c r="B557">
-        <v>4.7647146985828099</v>
+        <v>-8.6134115834777205</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>4.0005555381962399</v>
+        <v>-9.4908668692240692</v>
       </c>
       <c r="B558">
-        <v>4.76227918142561</v>
+        <v>-8.6158370230054206</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>4.0127040176407496</v>
+        <v>-9.4908668692240692</v>
       </c>
       <c r="B559">
-        <v>4.7671501941739196</v>
+        <v>-8.62068782648001</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>4.0054150011732998</v>
+        <v>-9.4860201506371205</v>
       </c>
       <c r="B560">
-        <v>4.7671501941739196</v>
+        <v>-8.6231131904103009</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>3.9981257711332701</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B561">
-        <v>4.7647146985828099</v>
+        <v>-8.6303891308735707</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>3.9665366452050899</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B562">
-        <v>4.76227918142561</v>
+        <v>-8.6400900314171096</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>3.8984850078576203</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B563">
-        <v>4.6380394093965895</v>
+        <v>-8.6497905275796807</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>3.3558638986445199</v>
+        <v>-9.48117332863767</v>
       </c>
       <c r="B564">
-        <v>4.1332199516963595</v>
+        <v>-8.6546406238522202</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>2.4874430653018003</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B565">
-        <v>3.1823681095639893</v>
+        <v>-8.6619155783135309</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1.2026230155445798</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B566">
-        <v>1.9346286542360198</v>
+        <v>-8.6667654212260103</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>-9.5830186656160166E-2</v>
+        <v>-9.4763264032917593</v>
       </c>
       <c r="B567">
-        <v>0.45271892387538992</v>
+        <v>-8.6764648026044</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>-1.53464158034057</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B568">
-        <v>-1.053537885930355</v>
+        <v>-8.6813143409377105</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>-2.972289978897396</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B569">
-        <v>-2.4738509618691804</v>
+        <v>-8.6837390719864</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>-4.4389360585914099</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B570">
-        <v>-3.8360773484632205</v>
+        <v>-8.6861637776120411</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>-5.80006750587747</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B571">
-        <v>-4.96740780581107</v>
+        <v>-8.6910131125611194</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>-6.9740458077403602</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B572">
-        <v>-5.9589058809232203</v>
+        <v>-8.6934377418679709</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>-7.9784513885691002</v>
+        <v>-9.4690558216428506</v>
       </c>
       <c r="B573">
-        <v>-6.7159288727037607</v>
+        <v>-8.7007114770183911</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>-8.7143950962398407</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B574">
-        <v>-7.3737052450475806</v>
+        <v>-8.7055605063940806</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>-9.3682174550019788</v>
+        <v>-9.4714793746654795</v>
       </c>
       <c r="B575">
-        <v>-7.8283282413267301</v>
+        <v>-8.7104094337794606</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>-9.76839262790274</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B576">
-        <v>-8.0128580732311292</v>
+        <v>-8.7104094337794606</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>-9.8095833446451906</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B577">
-        <v>-8.1026436955926204</v>
+        <v>-8.7079849828397009</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>-9.8289646087080698</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B578">
-        <v>-8.11477427825597</v>
+        <v>-8.7079849828397009</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>-9.7877774298730298</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B579">
-        <v>-8.0808070761769706</v>
+        <v>-8.7079849828397009</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>-9.7490061676342705</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B580">
-        <v>-8.0735277551378406</v>
+        <v>-8.7104094337794606</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>-9.7538529379357293</v>
+        <v>-9.4763264032917593</v>
       </c>
       <c r="B581">
-        <v>-8.0832334668009906</v>
+        <v>-8.715258259108321</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>-9.7611228994069101</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B582">
-        <v>-8.0905124893894804</v>
+        <v>-8.7322283431079502</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>-9.7853544204593401</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B583">
-        <v>-8.1026436955926204</v>
+        <v>-8.73465253853389</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>-9.8168515142789587</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B584">
-        <v>-8.1050698620417396</v>
+        <v>-8.7395008525867794</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>-9.8313871492756491</v>
+        <v>-9.4884435228612887</v>
       </c>
       <c r="B585">
-        <v>-8.1123482116563697</v>
+        <v>-8.7395008525867794</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>-9.8313871492756491</v>
+        <v>-9.4884435228612887</v>
       </c>
       <c r="B586">
-        <v>-8.1220523281224892</v>
+        <v>-8.7370767083629204</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>-9.8120060939185691</v>
+        <v>-9.4835967525598299</v>
       </c>
       <c r="B587">
-        <v>-8.1123482116563697</v>
+        <v>-8.7370767083629204</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>-9.7950463022195997</v>
+        <v>-9.48117332863767</v>
       </c>
       <c r="B588">
-        <v>-8.1099221200819294</v>
+        <v>-8.7419249711972</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>-9.7902004133098011</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B589">
-        <v>-8.1099221200819294</v>
+        <v>-8.7467731315446002</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>-9.7853544204593401</v>
+        <v>-9.48117332863767</v>
       </c>
       <c r="B590">
-        <v>-8.1172003198723903</v>
+        <v>-8.7564691445140994</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>-9.780508323734189</v>
+        <v>-9.4787498788788902</v>
       </c>
       <c r="B591">
-        <v>-8.1244782947395393</v>
+        <v>-8.7564691445140994</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>-9.77323898402582</v>
+        <v>-9.48117332863767</v>
       </c>
       <c r="B592">
-        <v>-8.1390335688062301</v>
+        <v>-8.7564691445140994</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>-9.7659694109707011</v>
+        <v>-9.4739029018845393</v>
       </c>
       <c r="B593">
-        <v>-8.1487365836359995</v>
+        <v>-8.7516211893389606</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>-9.7635461681360098</v>
+        <v>-9.4690558216428506</v>
       </c>
       <c r="B594">
-        <v>-8.1560135812426307</v>
+        <v>-8.7491971732650509</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>-9.7635461681360098</v>
+        <v>-9.4593613516817889</v>
       </c>
       <c r="B595">
-        <v>-8.1657158929375306</v>
+        <v>-8.7516211893389606</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>-9.7635461681360098</v>
+        <v>-9.4569376697651997</v>
       </c>
       <c r="B596">
-        <v>-8.1729923625826402</v>
+        <v>-8.7467731315446002</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>-9.7562762842985098</v>
+        <v>-9.4593613516817889</v>
       </c>
       <c r="B597">
-        <v>-8.1754178021103403</v>
+        <v>-8.7419249711972</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>-9.7562762842985098</v>
+        <v>-9.4520902286782693</v>
       </c>
       <c r="B598">
-        <v>-8.1802686055849296</v>
+        <v>-8.7467731315446002</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>-9.7514295657115611</v>
+        <v>-9.449666469524459</v>
       </c>
       <c r="B599">
-        <v>-8.1826939695152205</v>
+        <v>-8.7516211893389606</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>-9.7490061676342705</v>
+        <v>-9.4472426846414397</v>
       </c>
       <c r="B600">
-        <v>-8.1899699099784904</v>
+        <v>-8.7564691445140994</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>-9.7490061676342705</v>
+        <v>-9.449666469524459</v>
       </c>
       <c r="B601">
-        <v>-8.1996708105220293</v>
+        <v>-8.7637408847210896</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>-9.7490061676342705</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B602">
-        <v>-8.2093713066846004</v>
+        <v>-8.77101239366276</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>-9.7465827437121106</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B603">
-        <v>-8.2142214029571399</v>
+        <v>-8.76858858305879</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>-9.7441592939533308</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B604">
-        <v>-8.2214963574184505</v>
+        <v>-8.76858858305879</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>-9.7441592939533308</v>
+        <v>-9.4399711756997693</v>
       </c>
       <c r="B605">
-        <v>-8.22634620033093</v>
+        <v>-8.7661647467421506</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>-9.7417358183662</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B606">
-        <v>-8.2360455817093197</v>
+        <v>-8.7661647467421506</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>-9.7368887897399201</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B607">
-        <v>-8.2408951200426301</v>
+        <v>-8.76858858305879</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>-9.7368887897399201</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B608">
-        <v>-8.2433198510913197</v>
+        <v>-8.76858858305879</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>-9.7393123169589799</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B609">
-        <v>-8.2457445567169607</v>
+        <v>-8.7758599376995896</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>-9.7368887897399201</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B610">
-        <v>-8.2505938916660391</v>
+        <v>-8.78070737878652</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>-9.7368887897399201</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B611">
-        <v>-8.2530185209728906</v>
+        <v>-8.8000961123130796</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>-9.7344652367172912</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B612">
-        <v>-8.2602922561233108</v>
+        <v>-8.8073664615811502</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>-9.7368887897399201</v>
+        <v>-9.4399711756997693</v>
       </c>
       <c r="B613">
-        <v>-8.2651412854990003</v>
+        <v>-8.8073664615811502</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>-9.7368887897399201</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B614">
-        <v>-8.2699902128843803</v>
+        <v>-8.8073664615811502</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>-9.7393123169589799</v>
+        <v>-9.4230034225232799</v>
       </c>
       <c r="B615">
-        <v>-8.2699902128843803</v>
+        <v>-8.81705989873854</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>-9.7393123169589799</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B616">
-        <v>-8.2675657619446206</v>
+        <v>-8.8194831933537898</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>-9.7393123169589799</v>
+        <v>-9.4108828295125697</v>
       </c>
       <c r="B617">
-        <v>-8.2675657619446206</v>
+        <v>-8.8194831933537898</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>-9.7393123169589799</v>
+        <v>-9.4036101664771596</v>
       </c>
       <c r="B618">
-        <v>-8.2675657619446206</v>
+        <v>-8.8243297049175808</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>-9.7441592939533308</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B619">
-        <v>-8.2699902128843803</v>
+        <v>-8.8219064620828895</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>-9.7417358183662</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B620">
-        <v>-8.2748390382132406</v>
+        <v>-8.8219064620828895</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>-9.7441592939533308</v>
+        <v>-9.3914885500870007</v>
       </c>
       <c r="B621">
-        <v>-8.2918091222128698</v>
+        <v>-8.8243297049175808</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>-9.7441592939533308</v>
+        <v>-9.3890641501837795</v>
       </c>
       <c r="B622">
-        <v>-8.2942333176388097</v>
+        <v>-8.8267529218496197</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>-9.7490061676342705</v>
+        <v>-9.3866397247581403</v>
       </c>
       <c r="B623">
-        <v>-8.2990816316916991</v>
+        <v>-8.8219064620828895</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>-9.7538529379357293</v>
+        <v>-9.3866397247581403</v>
       </c>
       <c r="B624">
-        <v>-8.2990816316916991</v>
+        <v>-8.8219064620828895</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>-9.7538529379357293</v>
+        <v>-9.3866397247581403</v>
       </c>
       <c r="B625">
-        <v>-8.29665748746784</v>
+        <v>-8.8219064620828895</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>-9.7490061676342705</v>
+        <v>-9.3866397247581403</v>
       </c>
       <c r="B626">
-        <v>-8.29665748746784</v>
+        <v>-8.8243297049175808</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>-9.7465827437121106</v>
+        <v>-9.3939129244595208</v>
       </c>
       <c r="B627">
-        <v>-8.3015057503021197</v>
+        <v>-8.8315992779726997</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>-9.7441592939533308</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B628">
-        <v>-8.3063539106495199</v>
+        <v>-8.8340224171472403</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>-9.7465827437121106</v>
+        <v>-9.4036101664771596</v>
       </c>
       <c r="B629">
-        <v>-8.3160499236190191</v>
+        <v>-8.8388686176810705</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>-9.7441592939533308</v>
+        <v>-9.4060344130720708</v>
       </c>
       <c r="B630">
-        <v>-8.3160499236190191</v>
+        <v>-8.8630980619001409</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>-9.7465827437121106</v>
+        <v>-9.4133069993416001</v>
       </c>
       <c r="B631">
-        <v>-8.3160499236190191</v>
+        <v>-8.8703663878654506</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>-9.7393123169589799</v>
+        <v>-9.4157311435654591</v>
       </c>
       <c r="B632">
-        <v>-8.3112019684438803</v>
+        <v>-8.8776344792963595</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>-9.7344652367172912</v>
+        <v>-9.4133069993416001</v>
       </c>
       <c r="B633">
-        <v>-8.3087779523699705</v>
+        <v>-8.8776344792963595</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>-9.7247707667562295</v>
+        <v>-9.4108828295125697</v>
       </c>
       <c r="B634">
-        <v>-8.3112019684438803</v>
+        <v>-8.8752118082258402</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>-9.7223470848396403</v>
+        <v>-9.4108828295125697</v>
       </c>
       <c r="B635">
-        <v>-8.3063539106495199</v>
+        <v>-8.8873249026549495</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>-9.7247707667562295</v>
+        <v>-9.4084586340866299</v>
       </c>
       <c r="B636">
-        <v>-8.3015057503021197</v>
+        <v>-8.8994373441573806</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>-9.7174996437527099</v>
+        <v>-9.4084586340866299</v>
       </c>
       <c r="B637">
-        <v>-8.3063539106495199</v>
+        <v>-8.9018597540160407</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>-9.7150758845988996</v>
+        <v>-9.4060344130720708</v>
       </c>
       <c r="B638">
-        <v>-8.3112019684438803</v>
+        <v>-8.9018597540160407</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>-9.7126520997158803</v>
+        <v>-9.4036101664771596</v>
       </c>
       <c r="B639">
-        <v>-8.3160499236190191</v>
+        <v>-8.9139714106471999</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>-9.7150758845988996</v>
+        <v>-9.4133069993416001</v>
       </c>
       <c r="B640">
-        <v>-8.3233216638260092</v>
+        <v>-8.9163936633833707</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>-9.7078044527952692</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B641">
-        <v>-8.3305931727676796</v>
+        <v>-8.9236602642635194</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>-9.7078044527952692</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B642">
-        <v>-8.3281693621637096</v>
+        <v>-8.9260824120866804</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>-9.7029567030569996</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B643">
-        <v>-8.3281693621637096</v>
+        <v>-8.9309266289783</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>-9.7053805907742099</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B644">
-        <v>-8.3257455258470703</v>
+        <v>-8.9381927573054902</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>-9.7029567030569996</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B645">
-        <v>-8.3257455258470703</v>
+        <v>-8.9430367114208007</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>-9.7029567030569996</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B646">
-        <v>-8.3281693621637096</v>
+        <v>-8.9478805603103897</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>-9.7005327896519198</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B647">
-        <v>-8.3281693621637096</v>
+        <v>-8.9842060662716001</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>-9.7005327896519198</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B648">
-        <v>-8.3354407168045093</v>
+        <v>-8.9938918640508394</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>-9.6956848858111897</v>
+        <v>-9.4472426846414397</v>
       </c>
       <c r="B649">
-        <v>-8.3402881578914396</v>
+        <v>-9.0035772381650396</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>-9.7005327896519198</v>
+        <v>-9.4569376697651997</v>
       </c>
       <c r="B650">
-        <v>-8.3596768914179993</v>
+        <v>-9.005998515434321</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>-9.7029567030569996</v>
+        <v>-9.4617850078361094</v>
       </c>
       <c r="B651">
-        <v>-8.3669472406860699</v>
+        <v>-9.0084197661834704</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>-9.7053805907742099</v>
+        <v>-9.4690558216428506</v>
       </c>
       <c r="B652">
-        <v>-8.3669472406860699</v>
+        <v>-9.0156833592279906</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>-9.6932608953920791</v>
+        <v>-9.4690558216428506</v>
       </c>
       <c r="B653">
-        <v>-8.3669472406860699</v>
+        <v>-9.0084197661834704</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>-9.6884128375977205</v>
+        <v>-9.4642086382198993</v>
       </c>
       <c r="B654">
-        <v>-8.3766406778434597</v>
+        <v>-9.0084197661834704</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>-9.6835646772503203</v>
+        <v>-9.4617850078361094</v>
       </c>
       <c r="B655">
-        <v>-8.3790639724587095</v>
+        <v>-9.0084197661834704</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>-9.6762922445870103</v>
+        <v>-9.4545139620945982</v>
       </c>
       <c r="B656">
-        <v>-8.3790639724587095</v>
+        <v>-9.0132621880885111</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>-9.6690195815516002</v>
+        <v>-9.4520902286782693</v>
       </c>
       <c r="B657">
-        <v>-8.3839104840225005</v>
+        <v>-9.0374727036142009</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>-9.6641710116538313</v>
+        <v>-9.4472426846414397</v>
       </c>
       <c r="B658">
-        <v>-8.3814872411878092</v>
+        <v>-9.03505177174703</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>-9.6641710116538313</v>
+        <v>-9.4448188740374697</v>
       </c>
       <c r="B659">
-        <v>-8.3814872411878092</v>
+        <v>-9.0326308132612194</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>-9.6568979651614413</v>
+        <v>-9.4448188740374697</v>
       </c>
       <c r="B660">
-        <v>-8.3839104840225005</v>
+        <v>-9.0302098281649794</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>-9.6544735652582201</v>
+        <v>-9.4448188740374697</v>
       </c>
       <c r="B661">
-        <v>-8.3863337009545393</v>
+        <v>-9.0277888164665097</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>-9.6520491398325809</v>
+        <v>-9.4472426846414397</v>
       </c>
       <c r="B662">
-        <v>-8.3814872411878092</v>
+        <v>-9.0277888164665097</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>-9.6520491398325809</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B663">
-        <v>-8.3814872411878092</v>
+        <v>-9.0253677781740098</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>-9.6520491398325809</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B664">
-        <v>-8.3814872411878092</v>
+        <v>-9.0253677781740098</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>-9.6520491398325809</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B665">
-        <v>-8.3839104840225005</v>
+        <v>-9.0084197661834704</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>-9.6593223395339614</v>
+        <v>-9.4399711756997693</v>
       </c>
       <c r="B666">
-        <v>-8.3911800570776194</v>
+        <v>-9.0229467132957097</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>-9.6641710116538313</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B667">
-        <v>-8.39360319625216</v>
+        <v>-9.0277888164665097</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>-9.6690195815516002</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B668">
-        <v>-8.3984493967859901</v>
+        <v>-9.0253677781740098</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>-9.6714438281465114</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B669">
-        <v>-8.4226788410050606</v>
+        <v>-9.0253677781740098</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>-9.6787164144160407</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B670">
-        <v>-8.4299471669703703</v>
+        <v>-9.0253677781740098</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>-9.6811405586398998</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B671">
-        <v>-8.4372152584012792</v>
+        <v>-9.0277888164665097</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>-9.6787164144160407</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B672">
-        <v>-8.4372152584012792</v>
+        <v>-9.0326308132612194</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>-9.6762922445870103</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B673">
-        <v>-8.4347925873307599</v>
+        <v>-9.0374727036142009</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>-9.6762922445870103</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B674">
-        <v>-8.4469056817598691</v>
+        <v>-9.0326308132612194</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>-9.6738680491610705</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B675">
-        <v>-8.4590181232623003</v>
+        <v>-9.0277888164665097</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>-9.6738680491610705</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B676">
-        <v>-8.4614405331209603</v>
+        <v>-9.0302098281649794</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>-9.6714438281465114</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B677">
-        <v>-8.4614405331209603</v>
+        <v>-9.0302098281649794</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>-9.6690195815516002</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B678">
-        <v>-8.4735521897521195</v>
+        <v>-9.0374727036142009</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>-9.6787164144160407</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B679">
-        <v>-8.4759744424882904</v>
+        <v>-9.0398936088545199</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>-9.6835646772503203</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B680">
-        <v>-8.4832410433684391</v>
+        <v>-9.0447353394218197</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>-9.6835646772503203</v>
+        <v>-9.4230034225232799</v>
       </c>
       <c r="B681">
-        <v>-8.4856631911916001</v>
+        <v>-9.0616805564558298</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>-9.6835646772503203</v>
+        <v>-9.4011858943101707</v>
       </c>
       <c r="B682">
-        <v>-8.4905074080832197</v>
+        <v>-9.0616805564558298</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>-9.6956848858111897</v>
+        <v>-9.3963372732930797</v>
       </c>
       <c r="B683">
-        <v>-8.4977735364104099</v>
+        <v>-9.0713629502034809</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>-9.6981088505672197</v>
+        <v>-9.3914885500870007</v>
       </c>
       <c r="B684">
-        <v>-8.5026174905257204</v>
+        <v>-9.0810449160845899</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>-9.6981088505672197</v>
+        <v>-9.3914885500870007</v>
       </c>
       <c r="B685">
-        <v>-8.5074613394153094</v>
+        <v>-9.0858857384112799</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>-9.7005327896519198</v>
+        <v>-9.3914885500870007</v>
       </c>
       <c r="B686">
-        <v>-8.5437868453765198</v>
+        <v>-9.090726453574641</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>-9.7005327896519198</v>
+        <v>-9.3866397247581403</v>
       </c>
       <c r="B687">
-        <v>-8.5534726431557591</v>
+        <v>-9.1004075621492202</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>-9.7126520997158803</v>
+        <v>-9.3963372732930797</v>
       </c>
       <c r="B688">
-        <v>-8.5631580172699593</v>
+        <v>-9.0979873252450698</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>-9.7223470848396403</v>
+        <v>-9.3914885500870007</v>
       </c>
       <c r="B689">
-        <v>-8.5655792945392406</v>
+        <v>-9.1028277722133808</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>-9.72719442291055</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B690">
-        <v>-8.5680005452883901</v>
+        <v>-9.1004075621492202</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>-9.7344652367172912</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B691">
-        <v>-8.5752641383329102</v>
+        <v>-9.1004075621492202</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>-9.7344652367172912</v>
+        <v>-9.3987615965793907</v>
       </c>
       <c r="B692">
-        <v>-8.5680005452883901</v>
+        <v>-9.1004075621492202</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>-9.7296180532943399</v>
+        <v>-9.3963372732930797</v>
       </c>
       <c r="B693">
-        <v>-8.5680005452883901</v>
+        <v>-9.1004075621492202</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>-9.72719442291055</v>
+        <v>-9.4011858943101707</v>
       </c>
       <c r="B694">
-        <v>-8.5680005452883901</v>
+        <v>-9.1100882412840694</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>-9.7199233771690388</v>
+        <v>-9.4011858943101707</v>
       </c>
       <c r="B695">
-        <v>-8.5728429671934308</v>
+        <v>-9.112508343906411</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>-9.7174996437527099</v>
+        <v>-9.4133069993416001</v>
       </c>
       <c r="B696">
-        <v>-8.5970534827191205</v>
+        <v>-9.11976849045511</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>-9.7126520997158803</v>
+        <v>-9.4157311435654591</v>
       </c>
       <c r="B697">
-        <v>-8.5946325508519497</v>
+        <v>-9.124608453640441</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>-9.7102282891119103</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B698">
-        <v>-8.5922115923661391</v>
+        <v>-9.124608453640441</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>-9.7102282891119103</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B699">
-        <v>-8.5897906072698991</v>
+        <v>-9.124608453640441</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>-9.7102282891119103</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B700">
-        <v>-8.5873695955714293</v>
+        <v>-9.1270283948544204</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>-9.7126520997158803</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B701">
-        <v>-8.5873695955714293</v>
+        <v>-9.1270283948544204</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>-9.7078044527952692</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B702">
-        <v>-8.5849485572789295</v>
+        <v>-9.1342880568833493</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>-9.7078044527952692</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B703">
-        <v>-8.5849485572789295</v>
+        <v>-9.1415474763209694</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>-9.7078044527952692</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B704">
-        <v>-8.5680005452883901</v>
+        <v>-9.15606558653867</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>-9.7053805907742099</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B705">
-        <v>-8.5825274924006294</v>
+        <v>-9.1705827237408695</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>-9.7029567030569996</v>
+        <v>-9.449666469524459</v>
       </c>
       <c r="B706">
-        <v>-8.5873695955714293</v>
+        <v>-9.1730021518851697</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>-9.6981088505672197</v>
+        <v>-9.4448188740374697</v>
       </c>
       <c r="B707">
-        <v>-8.5849485572789295</v>
+        <v>-9.1705827237408695</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>-9.6956848858111897</v>
+        <v>-9.4423950377208286</v>
       </c>
       <c r="B708">
-        <v>-8.5849485572789295</v>
+        <v>-9.1633242768771002</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>-9.6956848858111897</v>
+        <v>-9.4399711756997693</v>
       </c>
       <c r="B709">
-        <v>-8.5849485572789295</v>
+        <v>-9.15606558653867</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>-9.7005327896519198</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B710">
-        <v>-8.5873695955714293</v>
+        <v>-9.1463869543973306</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>-9.6981088505672197</v>
+        <v>-9.4230034225232799</v>
       </c>
       <c r="B711">
-        <v>-8.5922115923661391</v>
+        <v>-9.1488066529463605</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>-9.6956848858111897</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B712">
-        <v>-8.5970534827191205</v>
+        <v>-9.1512263244917094</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>-9.7005327896519198</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B713">
-        <v>-8.5922115923661391</v>
+        <v>-9.1512263244917094</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>-9.7005327896519198</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B714">
-        <v>-8.5873695955714293</v>
+        <v>-9.1512263244917094</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>-9.7078044527952692</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B715">
-        <v>-8.5897906072698991</v>
+        <v>-9.1512263244917094</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>-9.7005327896519198</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B716">
-        <v>-8.5897906072698991</v>
+        <v>-9.1633242768771002</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>-9.6981088505672197</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B717">
-        <v>-8.5970534827191205</v>
+        <v>-9.1778409269092798</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>-9.6981088505672197</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B718">
-        <v>-8.5994743879594395</v>
+        <v>-9.1778409269092798</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>-9.6932608953920791</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B719">
-        <v>-8.6043161185267394</v>
+        <v>-9.1730021518851697</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>-9.6884128375977205</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B720">
-        <v>-8.6212613355607495</v>
+        <v>-9.1730021518851697</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>-9.6665953093846113</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B721">
-        <v>-8.6212613355607495</v>
+        <v>-9.1754215529440302</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>-9.6617466883675203</v>
+        <v>-9.4205793551645804</v>
       </c>
       <c r="B722">
-        <v>-8.6309437293084006</v>
+        <v>-9.1633242768771002</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>-9.6568979651614413</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B723">
-        <v>-8.6406256951895095</v>
+        <v>-9.1730021518851697</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>-9.6568979651614413</v>
+        <v>-9.4205793551645804</v>
       </c>
       <c r="B724">
-        <v>-8.6454665175161995</v>
+        <v>-9.1778409269092798</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>-9.6568979651614413</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B725">
-        <v>-8.6503072326795607</v>
+        <v>-9.1850988861616507</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>-9.6520491398325809</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B726">
-        <v>-8.6599883412541399</v>
+        <v>-9.1923566012773605</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>-9.6617466883675203</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B727">
-        <v>-8.6575681043499895</v>
+        <v>-9.1875181516707496</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>-9.6568979651614413</v>
+        <v>-9.4302754707367491</v>
       </c>
       <c r="B728">
-        <v>-8.6624085513183005</v>
+        <v>-9.1875181516707496</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>-9.6641710116538313</v>
+        <v>-9.4326994354927791</v>
       </c>
       <c r="B729">
-        <v>-8.6599883412541399</v>
+        <v>-9.1850988861616507</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>-9.6641710116538313</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B730">
-        <v>-8.6599883412541399</v>
+        <v>-9.1875181516707496</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>-9.6641710116538313</v>
+        <v>-9.4351233745774792</v>
       </c>
       <c r="B731">
-        <v>-8.6599883412541399</v>
+        <v>-9.1899373900453707</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>-9.6617466883675203</v>
+        <v>-9.437547287982559</v>
       </c>
       <c r="B732">
-        <v>-8.6599883412541399</v>
+        <v>-9.1947757853585497</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>-9.6665953093846113</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B733">
-        <v>-8.669669020388989</v>
+        <v>-9.1875181516707496</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>-9.6665953093846113</v>
+        <v>-9.4278514803176385</v>
       </c>
       <c r="B734">
-        <v>-8.6720891230113306</v>
+        <v>-9.1899373900453707</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>-9.6787164144160407</v>
+        <v>-9.4230034225232799</v>
       </c>
       <c r="B735">
-        <v>-8.6793492695600296</v>
+        <v>-9.1850988861616507</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>-9.6811405586398998</v>
+        <v>-9.4254274642437288</v>
       </c>
       <c r="B736">
-        <v>-8.6841892327453607</v>
+        <v>-9.1778409269092798</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>-9.6835646772503203</v>
+        <v>-9.4181552621758797</v>
       </c>
       <c r="B737">
-        <v>-8.6841892327453607</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B738">
-        <v>-8.6841892327453607</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B739">
-        <v>-8.6866091739593401</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B740">
-        <v>-8.6866091739593401</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741">
-        <v>-9.7029567030569996</v>
-      </c>
-      <c r="B741">
-        <v>-8.693868835988269</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742">
-        <v>-9.7029567030569996</v>
-      </c>
-      <c r="B742">
-        <v>-8.7011282554258891</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743">
-        <v>-9.7029567030569996</v>
-      </c>
-      <c r="B743">
-        <v>-8.7156463656435896</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744">
-        <v>-9.7078044527952692</v>
-      </c>
-      <c r="B744">
-        <v>-8.7301635028457891</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745">
-        <v>-9.7150758845988996</v>
-      </c>
-      <c r="B745">
-        <v>-8.7325829309900893</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746">
-        <v>-9.7102282891119103</v>
-      </c>
-      <c r="B746">
-        <v>-8.7301635028457891</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747">
-        <v>-9.7078044527952692</v>
-      </c>
-      <c r="B747">
-        <v>-8.7229050559820198</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748">
-        <v>-9.7053805907742099</v>
-      </c>
-      <c r="B748">
-        <v>-8.7156463656435896</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749">
-        <v>-9.6956848858111897</v>
-      </c>
-      <c r="B749">
-        <v>-8.7059677335022503</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750">
-        <v>-9.6884128375977205</v>
-      </c>
-      <c r="B750">
-        <v>-8.7083874320512802</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B751">
-        <v>-8.710807103596629</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B752">
-        <v>-8.710807103596629</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B753">
-        <v>-8.710807103596629</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B754">
-        <v>-8.710807103596629</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755">
-        <v>-9.6956848858111897</v>
-      </c>
-      <c r="B755">
-        <v>-8.7229050559820198</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756">
-        <v>-9.6981088505672197</v>
-      </c>
-      <c r="B756">
-        <v>-8.7374217060141994</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757">
-        <v>-9.6981088505672197</v>
-      </c>
-      <c r="B757">
-        <v>-8.7374217060141994</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758">
-        <v>-9.6981088505672197</v>
-      </c>
-      <c r="B758">
-        <v>-8.7325829309900893</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B759">
-        <v>-8.7325829309900893</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B760">
-        <v>-8.7350023320489498</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761">
-        <v>-9.6859887702390211</v>
-      </c>
-      <c r="B761">
-        <v>-8.7229050559820198</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B762">
-        <v>-8.7325829309900893</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763">
-        <v>-9.6859887702390211</v>
-      </c>
-      <c r="B763">
-        <v>-8.7374217060141994</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B764">
-        <v>-8.7446796652665704</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B765">
-        <v>-8.7519373803822802</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766">
-        <v>-9.6956848858111897</v>
-      </c>
-      <c r="B766">
-        <v>-8.7470989307756692</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767">
-        <v>-9.6956848858111897</v>
-      </c>
-      <c r="B767">
-        <v>-8.7470989307756692</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768">
-        <v>-9.6981088505672197</v>
-      </c>
-      <c r="B768">
-        <v>-8.7446796652665704</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769">
-        <v>-9.7005327896519198</v>
-      </c>
-      <c r="B769">
-        <v>-8.7470989307756692</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770">
-        <v>-9.7005327896519198</v>
-      </c>
-      <c r="B770">
-        <v>-8.7495181691502903</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771">
-        <v>-9.7029567030569996</v>
-      </c>
-      <c r="B771">
-        <v>-8.7543565644634693</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B772">
-        <v>-8.7470989307756692</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773">
-        <v>-9.6932608953920791</v>
-      </c>
-      <c r="B773">
-        <v>-8.7495181691502903</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774">
-        <v>-9.6884128375977205</v>
-      </c>
-      <c r="B774">
-        <v>-8.7446796652665704</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775">
-        <v>-9.6908368793181694</v>
-      </c>
-      <c r="B775">
-        <v>-8.7374217060141994</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776">
-        <v>-9.6835646772503203</v>
-      </c>
-      <c r="B776">
-        <v>-8.7422603726311792</v>
+        <v>-9.1826795935262595</v>
       </c>
     </row>
   </sheetData>
